--- a/src/assets/Composite_Ranks_Data.xlsx
+++ b/src/assets/Composite_Ranks_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\iCloudDrive\Documents\Longhorn Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F56C5-2090-43FD-BEF1-AEE4065D4501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36839246-76AC-4E8E-8E73-EBE9DF4C3F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{FE3D8065-EAB9-4A37-A7F2-CD334F4E0B63}"/>
   </bookViews>
@@ -729,7 +729,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +739,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -769,8 +776,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -798,15 +806,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1140,7 +1149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62635B1A-709D-4771-A284-C9977E8DCD30}">
   <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/assets/Composite_Ranks_Data.xlsx
+++ b/src/assets/Composite_Ranks_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\iCloudDrive\Documents\Longhorn Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36839246-76AC-4E8E-8E73-EBE9DF4C3F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95CA0D3-073F-43EB-B6BE-DFF64AD776B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{FE3D8065-EAB9-4A37-A7F2-CD334F4E0B63}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="230">
   <si>
     <t>Sport</t>
   </si>
@@ -723,6 +723,12 @@
   </si>
   <si>
     <t>Joe Greene</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -806,10 +812,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1147,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62635B1A-709D-4771-A284-C9977E8DCD30}">
-  <dimension ref="A1:K215"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L2" sqref="L2:L215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1176,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1204,8 +1210,11 @@
       <c r="K1" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>95.6</v>
       </c>
       <c r="I2" s="10">
-        <v>5.8823529411764719E-2</v>
+        <v>5.8823529411764719</v>
       </c>
       <c r="J2" s="1">
         <v>91.705069124423972</v>
@@ -1240,8 +1249,12 @@
         <f>MEDIAN(G2,H2,J2)</f>
         <v>91.705069124423972</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="str">
+        <f>IF(AND(K2&gt;50,G2&gt;50,J2&gt;50),"Buy","Hold")</f>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>127</v>
       </c>
@@ -1267,7 +1280,7 @@
         <v>49.2</v>
       </c>
       <c r="I3" s="10">
-        <v>-0.65771812080536907</v>
+        <v>-65.771812080536904</v>
       </c>
       <c r="J3" s="1">
         <v>40.092165898617509</v>
@@ -1276,8 +1289,12 @@
         <f t="shared" ref="K3:K66" si="0">MEDIAN(G3,H3,J3)</f>
         <v>40.092165898617509</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L66" si="1">IF(AND(K3&gt;50,G3&gt;50,J3&gt;50),"Buy","Hold")</f>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -1303,7 +1320,7 @@
         <v>60.8</v>
       </c>
       <c r="I4" s="10">
-        <v>-0.19310344827586201</v>
+        <v>-19.310344827586199</v>
       </c>
       <c r="J4" s="1">
         <v>58.986175115207374</v>
@@ -1312,8 +1329,12 @@
         <f t="shared" si="0"/>
         <v>58.986175115207374</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1360,7 @@
         <v>15.9</v>
       </c>
       <c r="I5" s="10">
-        <v>-0.65486725663716816</v>
+        <v>-65.486725663716811</v>
       </c>
       <c r="J5" s="1">
         <v>39.631336405529957</v>
@@ -1348,8 +1369,12 @@
         <f t="shared" si="0"/>
         <v>39.631336405529957</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>132</v>
       </c>
@@ -1375,7 +1400,7 @@
         <v>17.299999999999997</v>
       </c>
       <c r="I6" s="10">
-        <v>-0.25</v>
+        <v>-25</v>
       </c>
       <c r="J6" s="1">
         <v>37.788018433179722</v>
@@ -1384,8 +1409,12 @@
         <f t="shared" si="0"/>
         <v>37.788018433179722</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -1411,7 +1440,7 @@
         <v>88.4</v>
       </c>
       <c r="I7" s="10">
-        <v>-0.17910447761194037</v>
+        <v>-17.910447761194035</v>
       </c>
       <c r="J7" s="1">
         <v>44.700460829493089</v>
@@ -1420,8 +1449,12 @@
         <f t="shared" si="0"/>
         <v>44.700460829493089</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1480,7 @@
         <v>42</v>
       </c>
       <c r="I8" s="10">
-        <v>-0.32216014897579159</v>
+        <v>-32.216014897579157</v>
       </c>
       <c r="J8" s="1">
         <v>54.60829493087558</v>
@@ -1456,8 +1489,12 @@
         <f t="shared" si="0"/>
         <v>54.60829493087558</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>140</v>
       </c>
@@ -1483,7 +1520,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="10">
-        <v>-0.80088495575221241</v>
+        <v>-80.088495575221245</v>
       </c>
       <c r="J9" s="1">
         <v>37.096774193548384</v>
@@ -1492,8 +1529,12 @@
         <f t="shared" si="0"/>
         <v>33.300000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
@@ -1519,7 +1560,7 @@
         <v>24.6</v>
       </c>
       <c r="I10" s="10">
-        <v>-0.27516778523489926</v>
+        <v>-27.516778523489926</v>
       </c>
       <c r="J10" s="1">
         <v>36.866359447004612</v>
@@ -1528,8 +1569,12 @@
         <f t="shared" si="0"/>
         <v>36.866359447004612</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
@@ -1555,7 +1600,7 @@
         <v>44.9</v>
       </c>
       <c r="I11" s="10">
-        <v>-0.70471464019851116</v>
+        <v>-70.471464019851112</v>
       </c>
       <c r="J11" s="1">
         <v>52.073732718894007</v>
@@ -1564,8 +1609,12 @@
         <f t="shared" si="0"/>
         <v>52.073732718894007</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1591,7 +1640,7 @@
         <v>36.199999999999996</v>
       </c>
       <c r="I12" s="10">
-        <v>1.7182130584192379E-2</v>
+        <v>1.7182130584192379</v>
       </c>
       <c r="J12" s="1">
         <v>52.534562211981566</v>
@@ -1600,8 +1649,12 @@
         <f t="shared" si="0"/>
         <v>52.534562211981566</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>114</v>
       </c>
@@ -1627,7 +1680,7 @@
         <v>56.499999999999993</v>
       </c>
       <c r="I13" s="10">
-        <v>-0.16176470588235292</v>
+        <v>-16.176470588235293</v>
       </c>
       <c r="J13" s="1">
         <v>36.635944700460826</v>
@@ -1636,8 +1689,12 @@
         <f t="shared" si="0"/>
         <v>56.499999999999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>107</v>
       </c>
@@ -1663,7 +1720,7 @@
         <v>62.3</v>
       </c>
       <c r="I14" s="10">
-        <v>0.320754716981132</v>
+        <v>32.075471698113198</v>
       </c>
       <c r="J14" s="1">
         <v>36.175115207373267</v>
@@ -1672,8 +1729,12 @@
         <f t="shared" si="0"/>
         <v>36.175115207373267</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -1699,7 +1760,7 @@
         <v>55.000000000000007</v>
       </c>
       <c r="I15" s="10">
-        <v>-0.27659574468085113</v>
+        <v>-27.659574468085111</v>
       </c>
       <c r="J15" s="1">
         <v>32.94930875576037</v>
@@ -1708,8 +1769,12 @@
         <f t="shared" si="0"/>
         <v>32.94930875576037</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>179</v>
       </c>
@@ -1735,7 +1800,7 @@
         <v>65.2</v>
       </c>
       <c r="I16" s="10">
-        <v>0.23595505617977519</v>
+        <v>23.595505617977519</v>
       </c>
       <c r="J16" s="1">
         <v>47.926267281105993</v>
@@ -1744,8 +1809,12 @@
         <f t="shared" si="0"/>
         <v>47.926267281105993</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>142</v>
       </c>
@@ -1771,7 +1840,7 @@
         <v>69.5</v>
       </c>
       <c r="I17" s="10">
-        <v>-0.30841121495327095</v>
+        <v>-30.841121495327094</v>
       </c>
       <c r="J17" s="1">
         <v>50.230414746543786</v>
@@ -1780,8 +1849,12 @@
         <f t="shared" si="0"/>
         <v>69.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
@@ -1807,7 +1880,7 @@
         <v>40.5</v>
       </c>
       <c r="I18" s="10">
-        <v>-0.40758293838862558</v>
+        <v>-40.758293838862556</v>
       </c>
       <c r="J18" s="1">
         <v>64.055299539170505</v>
@@ -1816,8 +1889,12 @@
         <f t="shared" si="0"/>
         <v>64.055299539170505</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>143</v>
       </c>
@@ -1843,7 +1920,7 @@
         <v>81.100000000000009</v>
       </c>
       <c r="I19" s="10">
-        <v>-0.3910891089108911</v>
+        <v>-39.10891089108911</v>
       </c>
       <c r="J19" s="1">
         <v>43.778801843317972</v>
@@ -1852,8 +1929,12 @@
         <f t="shared" si="0"/>
         <v>43.778801843317972</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>144</v>
       </c>
@@ -1879,7 +1960,7 @@
         <v>47.8</v>
       </c>
       <c r="I20" s="10">
-        <v>-0.33402922755741127</v>
+        <v>-33.40292275574113</v>
       </c>
       <c r="J20" s="1">
         <v>30.875576036866359</v>
@@ -1888,8 +1969,12 @@
         <f t="shared" si="0"/>
         <v>37.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>145</v>
       </c>
@@ -1915,7 +2000,7 @@
         <v>27.500000000000004</v>
       </c>
       <c r="I21" s="10">
-        <v>8.0291970802919721E-2</v>
+        <v>8.0291970802919721</v>
       </c>
       <c r="J21" s="1">
         <v>54.838709677419352</v>
@@ -1924,8 +2009,12 @@
         <f t="shared" si="0"/>
         <v>54.838709677419352</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>175</v>
       </c>
@@ -1951,7 +2040,7 @@
         <v>11.5</v>
       </c>
       <c r="I22" s="10">
-        <v>0.43478260869565211</v>
+        <v>43.478260869565212</v>
       </c>
       <c r="J22" s="1">
         <v>55.990783410138249</v>
@@ -1960,8 +2049,12 @@
         <f t="shared" si="0"/>
         <v>15.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>72</v>
       </c>
@@ -1987,7 +2080,7 @@
         <v>14.399999999999999</v>
       </c>
       <c r="I23" s="10">
-        <v>-0.76579925650557623</v>
+        <v>-76.579925650557627</v>
       </c>
       <c r="J23" s="1">
         <v>26.267281105990783</v>
@@ -1996,8 +2089,12 @@
         <f t="shared" si="0"/>
         <v>26.267281105990783</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>146</v>
       </c>
@@ -2023,7 +2120,7 @@
         <v>69.5</v>
       </c>
       <c r="I24" s="10">
-        <v>7.3684210526315796E-2</v>
+        <v>7.3684210526315796</v>
       </c>
       <c r="J24" s="1">
         <v>42.626728110599075</v>
@@ -2032,8 +2129,12 @@
         <f t="shared" si="0"/>
         <v>69.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -2059,7 +2160,7 @@
         <v>76.8</v>
       </c>
       <c r="I25" s="10">
-        <v>-0.2604422604422606</v>
+        <v>-26.044226044226061</v>
       </c>
       <c r="J25" s="1">
         <v>91.474654377880171</v>
@@ -2068,8 +2169,12 @@
         <f t="shared" si="0"/>
         <v>76.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>147</v>
       </c>
@@ -2095,7 +2200,7 @@
         <v>5.7</v>
       </c>
       <c r="I26" s="10">
-        <v>0.64999999999999991</v>
+        <v>64.999999999999986</v>
       </c>
       <c r="J26" s="1">
         <v>23.041474654377879</v>
@@ -2104,8 +2209,12 @@
         <f t="shared" si="0"/>
         <v>23.041474654377879</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>84</v>
       </c>
@@ -2131,7 +2240,7 @@
         <v>13</v>
       </c>
       <c r="I27" s="10">
-        <v>-1.0748129675810474</v>
+        <v>-107.48129675810473</v>
       </c>
       <c r="J27" s="1">
         <v>25.11520737327189</v>
@@ -2140,8 +2249,12 @@
         <f t="shared" si="0"/>
         <v>18.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>148</v>
       </c>
@@ -2167,7 +2280,7 @@
         <v>43.4</v>
       </c>
       <c r="I28" s="10">
-        <v>0.18644067796610164</v>
+        <v>18.644067796610166</v>
       </c>
       <c r="J28" s="1">
         <v>23.963133640552996</v>
@@ -2176,8 +2289,12 @@
         <f t="shared" si="0"/>
         <v>43.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>149</v>
       </c>
@@ -2203,7 +2320,7 @@
         <v>4.3</v>
       </c>
       <c r="I29" s="10">
-        <v>-0.62732919254658381</v>
+        <v>-62.732919254658384</v>
       </c>
       <c r="J29" s="1">
         <v>24.884792626728107</v>
@@ -2212,8 +2329,12 @@
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>133</v>
       </c>
@@ -2239,7 +2360,7 @@
         <v>8.6</v>
       </c>
       <c r="I30" s="10">
-        <v>-0.61538461538461542</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="J30" s="1">
         <v>23.041474654377879</v>
@@ -2248,8 +2369,12 @@
         <f t="shared" si="0"/>
         <v>23.041474654377879</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>108</v>
       </c>
@@ -2275,7 +2400,7 @@
         <v>59.4</v>
       </c>
       <c r="I31" s="10">
-        <v>-0.1558441558441559</v>
+        <v>-15.58441558441559</v>
       </c>
       <c r="J31" s="1">
         <v>50.691244239631338</v>
@@ -2284,8 +2409,12 @@
         <f t="shared" si="0"/>
         <v>59.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>150</v>
       </c>
@@ -2311,7 +2440,7 @@
         <v>63.7</v>
       </c>
       <c r="I32" s="10">
-        <v>-0.32038834951456319</v>
+        <v>-32.038834951456316</v>
       </c>
       <c r="J32" s="1">
         <v>21.889400921658986</v>
@@ -2320,8 +2449,12 @@
         <f t="shared" si="0"/>
         <v>43.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>151</v>
       </c>
@@ -2347,7 +2480,7 @@
         <v>72.399999999999991</v>
       </c>
       <c r="I33" s="10">
-        <v>0.48235294117647065</v>
+        <v>48.235294117647065</v>
       </c>
       <c r="J33" s="1">
         <v>16.129032258064516</v>
@@ -2356,8 +2489,12 @@
         <f t="shared" si="0"/>
         <v>72.399999999999991</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>152</v>
       </c>
@@ -2383,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="10">
-        <v>19</v>
+        <v>1900</v>
       </c>
       <c r="J34" s="1">
         <v>2.7649769585253456</v>
@@ -2392,8 +2529,12 @@
         <f t="shared" si="0"/>
         <v>2.7649769585253456</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
@@ -2419,7 +2560,7 @@
         <v>30.4</v>
       </c>
       <c r="I35" s="10">
-        <v>-0.68970013037809652</v>
+        <v>-68.97001303780965</v>
       </c>
       <c r="J35" s="1">
         <v>21.198156682027651</v>
@@ -2428,8 +2569,12 @@
         <f t="shared" si="0"/>
         <v>30.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
@@ -2455,7 +2600,7 @@
         <v>68.100000000000009</v>
       </c>
       <c r="I36" s="10">
-        <v>-0.7597254004576659</v>
+        <v>-75.972540045766593</v>
       </c>
       <c r="J36" s="1">
         <v>47.926267281105986</v>
@@ -2464,8 +2609,12 @@
         <f t="shared" si="0"/>
         <v>47.926267281105986</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>25</v>
       </c>
@@ -2491,7 +2640,7 @@
         <v>78.2</v>
       </c>
       <c r="I37" s="10">
-        <v>-0.56420765027322406</v>
+        <v>-56.420765027322403</v>
       </c>
       <c r="J37" s="1">
         <v>59.907834101382484</v>
@@ -2500,8 +2649,12 @@
         <f t="shared" si="0"/>
         <v>59.907834101382484</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>153</v>
       </c>
@@ -2527,7 +2680,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="I38" s="10">
-        <v>2.1250000000000004</v>
+        <v>212.50000000000006</v>
       </c>
       <c r="J38" s="1">
         <v>14.285714285714285</v>
@@ -2536,8 +2689,12 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>154</v>
       </c>
@@ -2563,7 +2720,7 @@
         <v>39.1</v>
       </c>
       <c r="I39" s="10">
-        <v>-0.77083333333333326</v>
+        <v>-77.083333333333329</v>
       </c>
       <c r="J39" s="1">
         <v>19.124423963133641</v>
@@ -2572,8 +2729,12 @@
         <f t="shared" si="0"/>
         <v>19.124423963133641</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>155</v>
       </c>
@@ -2599,7 +2760,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="I40" s="10">
-        <v>-0.34426229508196715</v>
+        <v>-34.426229508196712</v>
       </c>
       <c r="J40" s="1">
         <v>17.972350230414747</v>
@@ -2608,8 +2769,12 @@
         <f t="shared" si="0"/>
         <v>17.972350230414747</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>156</v>
       </c>
@@ -2635,7 +2800,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="I41" s="10">
-        <v>-0.55555555555555558</v>
+        <v>-55.555555555555557</v>
       </c>
       <c r="J41" s="1">
         <v>17.741935483870968</v>
@@ -2644,8 +2809,12 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>89</v>
       </c>
@@ -2671,7 +2840,7 @@
         <v>34.699999999999996</v>
       </c>
       <c r="I42" s="10">
-        <v>-0.67238689547581898</v>
+        <v>-67.238689547581899</v>
       </c>
       <c r="J42" s="1">
         <v>40.092165898617509</v>
@@ -2680,8 +2849,12 @@
         <f t="shared" si="0"/>
         <v>40.092165898617509</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>157</v>
       </c>
@@ -2707,7 +2880,7 @@
         <v>79.7</v>
       </c>
       <c r="I43" s="10">
-        <v>8.5470085470087387E-3</v>
+        <v>0.85470085470087387</v>
       </c>
       <c r="J43" s="1">
         <v>76.958525345622121</v>
@@ -2716,8 +2889,12 @@
         <f t="shared" si="0"/>
         <v>76.958525345622121</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>43</v>
       </c>
@@ -2743,7 +2920,7 @@
         <v>28.9</v>
       </c>
       <c r="I44" s="10">
-        <v>-0.23684210526315796</v>
+        <v>-23.684210526315795</v>
       </c>
       <c r="J44" s="1">
         <v>64.976958525345623</v>
@@ -2752,8 +2929,12 @@
         <f t="shared" si="0"/>
         <v>47.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>81</v>
       </c>
@@ -2779,7 +2960,7 @@
         <v>18.8</v>
       </c>
       <c r="I45" s="10">
-        <v>-9.0196078431372562E-2</v>
+        <v>-9.0196078431372566</v>
       </c>
       <c r="J45" s="1">
         <v>17.972350230414747</v>
@@ -2788,8 +2969,12 @@
         <f t="shared" si="0"/>
         <v>17.972350230414747</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>186</v>
       </c>
@@ -2814,8 +2999,8 @@
       <c r="H46" s="1">
         <v>100</v>
       </c>
-      <c r="I46" s="10">
-        <v>0</v>
+      <c r="I46" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J46" s="1">
         <v>51.15207373271889</v>
@@ -2824,8 +3009,12 @@
         <f t="shared" si="0"/>
         <v>59.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>187</v>
       </c>
@@ -2850,8 +3039,8 @@
       <c r="H47" s="1">
         <v>98.5</v>
       </c>
-      <c r="I47" s="10">
-        <v>0</v>
+      <c r="I47" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J47" s="1">
         <v>35.023041474654377</v>
@@ -2860,8 +3049,12 @@
         <f t="shared" si="0"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>188</v>
       </c>
@@ -2886,8 +3079,8 @@
       <c r="H48" s="1">
         <v>97.1</v>
       </c>
-      <c r="I48" s="10">
-        <v>0</v>
+      <c r="I48" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J48" s="1">
         <v>59.447004608294932</v>
@@ -2896,8 +3089,12 @@
         <f t="shared" si="0"/>
         <v>59.447004608294932</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>189</v>
       </c>
@@ -2922,8 +3119,8 @@
       <c r="H49" s="1">
         <v>94.199999999999989</v>
       </c>
-      <c r="I49" s="10">
-        <v>0</v>
+      <c r="I49" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J49" s="1">
         <v>10.138248847926267</v>
@@ -2932,8 +3129,12 @@
         <f t="shared" si="0"/>
         <v>44.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>190</v>
       </c>
@@ -2958,8 +3159,8 @@
       <c r="H50" s="1">
         <v>91.3</v>
       </c>
-      <c r="I50" s="10">
-        <v>0</v>
+      <c r="I50" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J50" s="1">
         <v>13.82488479262673</v>
@@ -2968,8 +3169,12 @@
         <f t="shared" si="0"/>
         <v>50.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>191</v>
       </c>
@@ -2994,8 +3199,8 @@
       <c r="H51" s="1">
         <v>89.8</v>
       </c>
-      <c r="I51" s="10">
-        <v>0</v>
+      <c r="I51" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J51" s="1">
         <v>43.778801843317972</v>
@@ -3004,8 +3209,12 @@
         <f t="shared" si="0"/>
         <v>81.100000000000009</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>192</v>
       </c>
@@ -3030,8 +3239,8 @@
       <c r="H52" s="1">
         <v>86.9</v>
       </c>
-      <c r="I52" s="10">
-        <v>0</v>
+      <c r="I52" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J52" s="1">
         <v>12.211981566820276</v>
@@ -3040,8 +3249,12 @@
         <f t="shared" si="0"/>
         <v>65.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>193</v>
       </c>
@@ -3066,8 +3279,8 @@
       <c r="H53" s="1">
         <v>85.5</v>
       </c>
-      <c r="I53" s="10">
-        <v>0</v>
+      <c r="I53" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J53" s="1">
         <v>38.47926267281106</v>
@@ -3076,8 +3289,12 @@
         <f t="shared" si="0"/>
         <v>62.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>194</v>
       </c>
@@ -3102,8 +3319,8 @@
       <c r="H54" s="1">
         <v>84</v>
       </c>
-      <c r="I54" s="10">
-        <v>0</v>
+      <c r="I54" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J54" s="1">
         <v>20.046082949308754</v>
@@ -3112,8 +3329,12 @@
         <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>195</v>
       </c>
@@ -3138,8 +3359,8 @@
       <c r="H55" s="1">
         <v>82.6</v>
       </c>
-      <c r="I55" s="10">
-        <v>0</v>
+      <c r="I55" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J55" s="1">
         <v>28.110599078341014</v>
@@ -3148,8 +3369,12 @@
         <f t="shared" si="0"/>
         <v>79.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>196</v>
       </c>
@@ -3174,8 +3399,8 @@
       <c r="H56" s="1">
         <v>75.3</v>
       </c>
-      <c r="I56" s="10">
-        <v>0</v>
+      <c r="I56" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J56" s="1">
         <v>16.589861751152075</v>
@@ -3184,8 +3409,12 @@
         <f t="shared" si="0"/>
         <v>75.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>226</v>
       </c>
@@ -3210,8 +3439,8 @@
       <c r="H57" s="1">
         <v>66.600000000000009</v>
       </c>
-      <c r="I57" s="10">
-        <v>0</v>
+      <c r="I57" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J57" s="1">
         <v>14.746543778801843</v>
@@ -3220,8 +3449,12 @@
         <f t="shared" si="0"/>
         <v>66.600000000000009</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>197</v>
       </c>
@@ -3246,8 +3479,8 @@
       <c r="H58" s="1">
         <v>50.7</v>
       </c>
-      <c r="I58" s="10">
-        <v>0</v>
+      <c r="I58" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J58" s="1">
         <v>15.668202764976957</v>
@@ -3256,8 +3489,12 @@
         <f t="shared" si="0"/>
         <v>50.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>198</v>
       </c>
@@ -3282,8 +3519,8 @@
       <c r="H59" s="1">
         <v>20.200000000000003</v>
       </c>
-      <c r="I59" s="10">
-        <v>0</v>
+      <c r="I59" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J59" s="1">
         <v>11.059907834101383</v>
@@ -3292,8 +3529,12 @@
         <f t="shared" si="0"/>
         <v>20.200000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>129</v>
       </c>
@@ -3319,7 +3560,7 @@
         <v>21.7</v>
       </c>
       <c r="I60" s="10">
-        <v>0.41176470588235281</v>
+        <v>41.176470588235283</v>
       </c>
       <c r="J60" s="1">
         <v>41.705069124423964</v>
@@ -3328,8 +3569,12 @@
         <f t="shared" si="0"/>
         <v>41.705069124423964</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>73</v>
       </c>
@@ -3355,7 +3600,7 @@
         <v>23.1</v>
       </c>
       <c r="I61" s="10">
-        <v>-0.46931407942238257</v>
+        <v>-46.931407942238259</v>
       </c>
       <c r="J61" s="1">
         <v>49.078341013824883</v>
@@ -3364,8 +3609,12 @@
         <f t="shared" si="0"/>
         <v>49.078341013824883</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>9</v>
       </c>
@@ -3391,7 +3640,7 @@
         <v>92.7</v>
       </c>
       <c r="I62" s="10">
-        <v>-0.19556451612903225</v>
+        <v>-19.556451612903224</v>
       </c>
       <c r="J62" s="1">
         <v>95.622119815668214</v>
@@ -3400,8 +3649,12 @@
         <f t="shared" si="0"/>
         <v>92.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>110</v>
       </c>
@@ -3427,7 +3680,7 @@
         <v>52.1</v>
       </c>
       <c r="I63" s="10">
-        <v>7.8431372549019773E-2</v>
+        <v>7.8431372549019773</v>
       </c>
       <c r="J63" s="1">
         <v>13.59447004608295</v>
@@ -3436,8 +3689,12 @@
         <f t="shared" si="0"/>
         <v>52.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>158</v>
       </c>
@@ -3463,7 +3720,7 @@
         <v>57.9</v>
       </c>
       <c r="I64" s="10">
-        <v>2.7237354085603238E-2</v>
+        <v>2.7237354085603238</v>
       </c>
       <c r="J64" s="1">
         <v>12.903225806451612</v>
@@ -3472,8 +3729,12 @@
         <f t="shared" si="0"/>
         <v>46.300000000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>159</v>
       </c>
@@ -3499,7 +3760,7 @@
         <v>37.6</v>
       </c>
       <c r="I65" s="10">
-        <v>-0.13411078717201164</v>
+        <v>-13.411078717201164</v>
       </c>
       <c r="J65" s="1">
         <v>12.672811059907833</v>
@@ -3508,8 +3769,12 @@
         <f t="shared" si="0"/>
         <v>37.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>160</v>
       </c>
@@ -3544,8 +3809,12 @@
         <f t="shared" si="0"/>
         <v>31.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>161</v>
       </c>
@@ -3571,17 +3840,21 @@
         <v>46.300000000000004</v>
       </c>
       <c r="I67" s="10">
-        <v>0.41176470588235303</v>
+        <v>41.176470588235304</v>
       </c>
       <c r="J67" s="1">
         <v>19.585253456221199</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" ref="K67:K130" si="1">MEDIAN(G67,H67,J67)</f>
+        <f t="shared" ref="K67:K130" si="2">MEDIAN(G67,H67,J67)</f>
         <v>19.585253456221199</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="2" t="str">
+        <f t="shared" ref="L67:L130" si="3">IF(AND(K67&gt;50,G67&gt;50,J67&gt;50),"Buy","Hold")</f>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>176</v>
       </c>
@@ -3607,17 +3880,21 @@
         <v>33.300000000000004</v>
       </c>
       <c r="I68" s="10">
-        <v>-0.61940298507462688</v>
+        <v>-61.940298507462686</v>
       </c>
       <c r="J68" s="1">
         <v>20.506912442396313</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>162</v>
       </c>
@@ -3643,17 +3920,21 @@
         <v>53.6</v>
       </c>
       <c r="I69" s="10">
-        <v>3.9370078740157632E-2</v>
+        <v>3.9370078740157632</v>
       </c>
       <c r="J69" s="1">
         <v>21.428571428571431</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.428571428571431</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>163</v>
       </c>
@@ -3679,17 +3960,21 @@
         <v>73.900000000000006</v>
       </c>
       <c r="I70" s="10">
-        <v>-0.71428571428571419</v>
+        <v>-71.428571428571416</v>
       </c>
       <c r="J70" s="1">
         <v>30.875576036866359</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.875576036866359</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>126</v>
       </c>
@@ -3715,17 +4000,21 @@
         <v>10.100000000000001</v>
       </c>
       <c r="I71" s="10">
-        <v>-1.103448275862069</v>
+        <v>-110.34482758620689</v>
       </c>
       <c r="J71" s="1">
         <v>10.599078341013826</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.599078341013826</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>46</v>
       </c>
@@ -3751,17 +4040,21 @@
         <v>95.5</v>
       </c>
       <c r="I72" s="10">
-        <v>-1.8656716417910446E-2</v>
+        <v>-1.8656716417910446</v>
       </c>
       <c r="J72" s="1">
         <v>79.032258064516128</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>37</v>
       </c>
@@ -3787,17 +4080,21 @@
         <v>45.5</v>
       </c>
       <c r="I73" s="10">
-        <v>0.13559322033898313</v>
+        <v>13.559322033898313</v>
       </c>
       <c r="J73" s="1">
         <v>91.935483870967744</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>27</v>
       </c>
@@ -3823,17 +4120,21 @@
         <v>57.3</v>
       </c>
       <c r="I74" s="10">
-        <v>-4.5454545454545525E-2</v>
+        <v>-4.5454545454545521</v>
       </c>
       <c r="J74" s="1">
         <v>40.783410138248847</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>51</v>
       </c>
@@ -3859,17 +4160,21 @@
         <v>26.400000000000002</v>
       </c>
       <c r="I75" s="10">
-        <v>-6.2111801242237252E-3</v>
+        <v>-0.62111801242237252</v>
       </c>
       <c r="J75" s="1">
         <v>49.078341013824883</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.400000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>125</v>
       </c>
@@ -3895,17 +4200,21 @@
         <v>42.6</v>
       </c>
       <c r="I76" s="10">
-        <v>0.21893491124260378</v>
+        <v>21.893491124260379</v>
       </c>
       <c r="J76" s="1">
         <v>68.20276497695852</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.20276497695852</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>112</v>
       </c>
@@ -3931,17 +4240,21 @@
         <v>58.8</v>
       </c>
       <c r="I77" s="10">
-        <v>-4.4776119402985204E-2</v>
+        <v>-4.4776119402985204</v>
       </c>
       <c r="J77" s="1">
         <v>63.594470046082947</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>65</v>
       </c>
@@ -3967,17 +4280,21 @@
         <v>69.099999999999994</v>
       </c>
       <c r="I78" s="10">
-        <v>-0.37446808510638296</v>
+        <v>-37.446808510638299</v>
       </c>
       <c r="J78" s="1">
         <v>59.216589861751146</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>50</v>
       </c>
@@ -4003,17 +4320,21 @@
         <v>79.400000000000006</v>
       </c>
       <c r="I79" s="10">
-        <v>-4.054054054054046E-2</v>
+        <v>-4.0540540540540455</v>
       </c>
       <c r="J79" s="1">
         <v>73.271889400921651</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73.271889400921651</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>93</v>
       </c>
@@ -4039,17 +4360,21 @@
         <v>36.700000000000003</v>
       </c>
       <c r="I80" s="10">
-        <v>0.22085889570552131</v>
+        <v>22.08588957055213</v>
       </c>
       <c r="J80" s="1">
         <v>59.216589861751146</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>177</v>
       </c>
@@ -4075,17 +4400,21 @@
         <v>47</v>
       </c>
       <c r="I81" s="10">
-        <v>-1.6129032258064502E-2</v>
+        <v>-1.6129032258064502</v>
       </c>
       <c r="J81" s="1">
         <v>62.21198156682027</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>164</v>
       </c>
@@ -4111,17 +4440,21 @@
         <v>48.5</v>
       </c>
       <c r="I82" s="10">
-        <v>-6.3492063492063489E-2</v>
+        <v>-6.3492063492063489</v>
       </c>
       <c r="J82" s="1">
         <v>57.373271889400925</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>135</v>
       </c>
@@ -4147,17 +4480,21 @@
         <v>38.200000000000003</v>
       </c>
       <c r="I83" s="10">
-        <v>4.0697674418604501E-2</v>
+        <v>4.0697674418604501</v>
       </c>
       <c r="J83" s="1">
         <v>34.331797235023046</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.331797235023046</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>20</v>
       </c>
@@ -4183,17 +4520,21 @@
         <v>54.400000000000006</v>
       </c>
       <c r="I84" s="10">
-        <v>2.1164021164021385E-2</v>
+        <v>2.1164021164021385</v>
       </c>
       <c r="J84" s="1">
         <v>68.894009216589865</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.400000000000006</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>96</v>
       </c>
@@ -4219,17 +4560,21 @@
         <v>73.5</v>
       </c>
       <c r="I85" s="10">
-        <v>0.1170731707317072</v>
+        <v>11.707317073170721</v>
       </c>
       <c r="J85" s="1">
         <v>51.843317972350228</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.843317972350228</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -4255,17 +4600,21 @@
         <v>63.2</v>
       </c>
       <c r="I86" s="10">
-        <v>4.4999999999999929E-2</v>
+        <v>4.4999999999999929</v>
       </c>
       <c r="J86" s="1">
         <v>73.502304147465424</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>56</v>
       </c>
@@ -4291,17 +4640,21 @@
         <v>22</v>
       </c>
       <c r="I87" s="10">
-        <v>-0.13888888888888884</v>
+        <v>-13.888888888888884</v>
       </c>
       <c r="J87" s="1">
         <v>67.972350230414747</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.972350230414747</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>35</v>
       </c>
@@ -4327,17 +4680,21 @@
         <v>98.5</v>
       </c>
       <c r="I88" s="10">
-        <v>0.18217054263565879</v>
+        <v>18.217054263565878</v>
       </c>
       <c r="J88" s="1">
         <v>90.783410138248854</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.783410138248854</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>47</v>
       </c>
@@ -4363,17 +4720,21 @@
         <v>61.7</v>
       </c>
       <c r="I89" s="10">
-        <v>-4.4554455445544483E-2</v>
+        <v>-4.4554455445544487</v>
       </c>
       <c r="J89" s="1">
         <v>81.79723502304148</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>100</v>
       </c>
@@ -4399,17 +4760,21 @@
         <v>60.199999999999996</v>
       </c>
       <c r="I90" s="10">
-        <v>0.13089005235602102</v>
+        <v>13.089005235602102</v>
       </c>
       <c r="J90" s="1">
         <v>76.497695852534562</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.199999999999996</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>122</v>
       </c>
@@ -4435,17 +4800,21 @@
         <v>23.5</v>
       </c>
       <c r="I91" s="10">
-        <v>5.5944055944055826E-2</v>
+        <v>5.5944055944055826</v>
       </c>
       <c r="J91" s="1">
         <v>61.751152073732712</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>17</v>
       </c>
@@ -4471,17 +4840,21 @@
         <v>33.800000000000004</v>
       </c>
       <c r="I92" s="10">
-        <v>4.705882352941182E-2</v>
+        <v>4.705882352941182</v>
       </c>
       <c r="J92" s="1">
         <v>59.447004608294932</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.800000000000004</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>61</v>
       </c>
@@ -4507,17 +4880,21 @@
         <v>82.3</v>
       </c>
       <c r="I93" s="10">
-        <v>-0.15611814345991559</v>
+        <v>-15.61181434599156</v>
       </c>
       <c r="J93" s="1">
         <v>82.488479262672811</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>182</v>
       </c>
@@ -4543,17 +4920,21 @@
         <v>50</v>
       </c>
       <c r="I94" s="10">
-        <v>8.287292817679548E-2</v>
+        <v>8.287292817679548</v>
       </c>
       <c r="J94" s="1">
         <v>30.414746543778801</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>71</v>
       </c>
@@ -4579,17 +4960,21 @@
         <v>72</v>
       </c>
       <c r="I95" s="10">
-        <v>7.2815533980582492E-2</v>
+        <v>7.2815533980582492</v>
       </c>
       <c r="J95" s="1">
         <v>37.557603686635943</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -4615,17 +5000,21 @@
         <v>32.300000000000004</v>
       </c>
       <c r="I96" s="10">
-        <v>5.3254437869822535E-2</v>
+        <v>5.3254437869822535</v>
       </c>
       <c r="J96" s="1">
         <v>74.654377880184327</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.600000000000009</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>36</v>
       </c>
@@ -4651,17 +5040,21 @@
         <v>67.600000000000009</v>
       </c>
       <c r="I97" s="10">
-        <v>6.8965517241379226E-2</v>
+        <v>6.8965517241379226</v>
       </c>
       <c r="J97" s="1">
         <v>90.092165898617509</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.600000000000009</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>74</v>
       </c>
@@ -4687,17 +5080,21 @@
         <v>77.900000000000006</v>
       </c>
       <c r="I98" s="10">
-        <v>3.2258064516129004E-2</v>
+        <v>3.2258064516129004</v>
       </c>
       <c r="J98" s="1">
         <v>86.405529953917053</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.900000000000006</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>87</v>
       </c>
@@ -4723,17 +5120,21 @@
         <v>97</v>
       </c>
       <c r="I99" s="10">
-        <v>-0.17021276595744683</v>
+        <v>-17.021276595744684</v>
       </c>
       <c r="J99" s="1">
         <v>67.741935483870975</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.741935483870975</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>121</v>
       </c>
@@ -4759,17 +5160,21 @@
         <v>29.4</v>
       </c>
       <c r="I100" s="10">
-        <v>0.10365853658536595</v>
+        <v>10.365853658536594</v>
       </c>
       <c r="J100" s="1">
         <v>52.764976958525338</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.764976958525338</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>97</v>
       </c>
@@ -4795,17 +5200,21 @@
         <v>39.700000000000003</v>
       </c>
       <c r="I101" s="10">
-        <v>-3.3149171270718258E-2</v>
+        <v>-3.3149171270718258</v>
       </c>
       <c r="J101" s="1">
         <v>55.299539170506911</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>115</v>
       </c>
@@ -4831,17 +5240,21 @@
         <v>85.2</v>
       </c>
       <c r="I102" s="10">
-        <v>-1.6806722689075682E-2</v>
+        <v>-1.6806722689075682</v>
       </c>
       <c r="J102" s="1">
         <v>80.41474654377879</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.41474654377879</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>130</v>
       </c>
@@ -4867,17 +5280,21 @@
         <v>80.800000000000011</v>
       </c>
       <c r="I103" s="10">
-        <v>-0.11637931034482751</v>
+        <v>-11.637931034482751</v>
       </c>
       <c r="J103" s="1">
         <v>65.207373271889395</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.207373271889395</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>86</v>
       </c>
@@ -4903,17 +5320,21 @@
         <v>88.2</v>
       </c>
       <c r="I104" s="10">
-        <v>-0.14516129032258074</v>
+        <v>-14.516129032258075</v>
       </c>
       <c r="J104" s="1">
         <v>88.709677419354847</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>39</v>
       </c>
@@ -4939,17 +5360,21 @@
         <v>25</v>
       </c>
       <c r="I105" s="10">
-        <v>-0.18354430379746833</v>
+        <v>-18.354430379746834</v>
       </c>
       <c r="J105" s="1">
         <v>72.811059907834093</v>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>57</v>
       </c>
@@ -4975,17 +5400,21 @@
         <v>75</v>
       </c>
       <c r="I106" s="10">
-        <v>7.2115384615384581E-2</v>
+        <v>7.2115384615384581</v>
       </c>
       <c r="J106" s="1">
         <v>61.290322580645167</v>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>102</v>
       </c>
@@ -5011,17 +5440,21 @@
         <v>76.400000000000006</v>
       </c>
       <c r="I107" s="10">
-        <v>-0.13513513513513509</v>
+        <v>-13.513513513513509</v>
       </c>
       <c r="J107" s="1">
         <v>79.953917050691246</v>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.953917050691246</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>49</v>
       </c>
@@ -5047,17 +5480,21 @@
         <v>52.900000000000006</v>
       </c>
       <c r="I108" s="10">
-        <v>1.0582010582010692E-2</v>
+        <v>1.0582010582010692</v>
       </c>
       <c r="J108" s="1">
         <v>84.792626728110605</v>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.900000000000006</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>98</v>
       </c>
@@ -5083,17 +5520,21 @@
         <v>27.900000000000002</v>
       </c>
       <c r="I109" s="10">
-        <v>-9.8265895953757232E-2</v>
+        <v>-9.8265895953757223</v>
       </c>
       <c r="J109" s="1">
         <v>45.161290322580641</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.161290322580641</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>165</v>
       </c>
@@ -5119,17 +5560,21 @@
         <v>92.600000000000009</v>
       </c>
       <c r="I110" s="10">
-        <v>-0.15613382899628248</v>
+        <v>-15.613382899628247</v>
       </c>
       <c r="J110" s="1">
         <v>100</v>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.600000000000009</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>90</v>
       </c>
@@ -5155,17 +5600,21 @@
         <v>89.7</v>
       </c>
       <c r="I111" s="10">
-        <v>-5.4901960784313641E-2</v>
+        <v>-5.4901960784313637</v>
       </c>
       <c r="J111" s="1">
         <v>88.018433179723502</v>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.018433179723502</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>124</v>
       </c>
@@ -5197,11 +5646,15 @@
         <v>21.65898617511521</v>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>44</v>
       </c>
@@ -5227,17 +5680,21 @@
         <v>100</v>
       </c>
       <c r="I113" s="10">
-        <v>0.12280701754385959</v>
+        <v>12.280701754385959</v>
       </c>
       <c r="J113" s="1">
         <v>89.400921658986164</v>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.400921658986164</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>131</v>
       </c>
@@ -5263,17 +5720,21 @@
         <v>41.099999999999994</v>
       </c>
       <c r="I114" s="10">
-        <v>0.16959064327485374</v>
+        <v>16.959064327485372</v>
       </c>
       <c r="J114" s="1">
         <v>52.073732718894007</v>
       </c>
       <c r="K114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.073732718894007</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>48</v>
       </c>
@@ -5299,17 +5760,21 @@
         <v>51.4</v>
       </c>
       <c r="I115" s="10">
-        <v>3.7837837837837895E-2</v>
+        <v>3.7837837837837895</v>
       </c>
       <c r="J115" s="1">
         <v>54.377880184331794</v>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.377880184331794</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>166</v>
       </c>
@@ -5335,17 +5800,21 @@
         <v>19.100000000000001</v>
       </c>
       <c r="I116" s="10">
-        <v>10.328125</v>
+        <v>1032.8125</v>
       </c>
       <c r="J116" s="1">
         <v>63.364055299539167</v>
       </c>
       <c r="K116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.800000000000004</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>116</v>
       </c>
@@ -5371,17 +5840,21 @@
         <v>64.7</v>
       </c>
       <c r="I117" s="10">
-        <v>-0.13679245283018859</v>
+        <v>-13.67924528301886</v>
       </c>
       <c r="J117" s="1">
         <v>58.986175115207374</v>
       </c>
       <c r="K117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.986175115207374</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>76</v>
       </c>
@@ -5407,17 +5880,21 @@
         <v>55.800000000000004</v>
       </c>
       <c r="I118" s="10">
-        <v>-0.33796296296296302</v>
+        <v>-33.796296296296305</v>
       </c>
       <c r="J118" s="1">
         <v>79.723502304147473</v>
       </c>
       <c r="K118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.723502304147473</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>134</v>
       </c>
@@ -5443,17 +5920,21 @@
         <v>35.199999999999996</v>
       </c>
       <c r="I119" s="10">
-        <v>4.0935672514619936E-2</v>
+        <v>4.0935672514619936</v>
       </c>
       <c r="J119" s="1">
         <v>16.820276497695854</v>
       </c>
       <c r="K119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.820276497695854</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>85</v>
       </c>
@@ -5479,17 +5960,21 @@
         <v>91.100000000000009</v>
       </c>
       <c r="I120" s="10">
-        <v>0.31196581196581197</v>
+        <v>31.196581196581196</v>
       </c>
       <c r="J120" s="1">
         <v>90.092165898617509</v>
       </c>
       <c r="K120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.100000000000009</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>6</v>
       </c>
@@ -5515,17 +6000,21 @@
         <v>83.8</v>
       </c>
       <c r="I121" s="10">
-        <v>-8.5106382978723416E-2</v>
+        <v>-8.5106382978723421</v>
       </c>
       <c r="J121" s="1">
         <v>96.774193548387103</v>
       </c>
       <c r="K121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.100000000000009</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>69</v>
       </c>
@@ -5551,17 +6040,21 @@
         <v>66.100000000000009</v>
       </c>
       <c r="I122" s="10">
-        <v>-0.14084507042253525</v>
+        <v>-14.084507042253524</v>
       </c>
       <c r="J122" s="1">
         <v>74.423963133640555</v>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.100000000000009</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>66</v>
       </c>
@@ -5587,17 +6080,21 @@
         <v>30.8</v>
       </c>
       <c r="I123" s="10">
-        <v>0.23899371069182385</v>
+        <v>23.899371069182386</v>
       </c>
       <c r="J123" s="1">
         <v>52.764976958525338</v>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.8</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>199</v>
       </c>
@@ -5622,18 +6119,22 @@
       <c r="H124" s="1">
         <v>17.599999999999998</v>
       </c>
-      <c r="I124" s="10">
-        <v>0</v>
+      <c r="I124" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J124" s="1">
         <v>56.221198156682028</v>
       </c>
       <c r="K124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>200</v>
       </c>
@@ -5658,18 +6159,22 @@
       <c r="H125" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="I125" s="10">
-        <v>0</v>
+      <c r="I125" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J125" s="1">
         <v>12.903225806451612</v>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>201</v>
       </c>
@@ -5694,18 +6199,22 @@
       <c r="H126" s="1">
         <v>14.7</v>
       </c>
-      <c r="I126" s="10">
-        <v>0</v>
+      <c r="I126" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J126" s="1">
         <v>96.31336405529953</v>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>202</v>
       </c>
@@ -5730,18 +6239,22 @@
       <c r="H127" s="1">
         <v>13.200000000000001</v>
       </c>
-      <c r="I127" s="10">
-        <v>0</v>
+      <c r="I127" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J127" s="1">
         <v>22.58064516129032</v>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.58064516129032</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>203</v>
       </c>
@@ -5766,18 +6279,22 @@
       <c r="H128" s="1">
         <v>11.700000000000001</v>
       </c>
-      <c r="I128" s="10">
-        <v>0</v>
+      <c r="I128" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J128" s="1">
         <v>48.387096774193544</v>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.700000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>204</v>
       </c>
@@ -5802,18 +6319,22 @@
       <c r="H129" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="I129" s="10">
-        <v>0</v>
+      <c r="I129" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J129" s="1">
         <v>18.202764976958527</v>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.202764976958527</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>205</v>
       </c>
@@ -5838,18 +6359,22 @@
       <c r="H130" s="1">
         <v>8.7999999999999989</v>
       </c>
-      <c r="I130" s="10">
-        <v>0</v>
+      <c r="I130" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J130" s="1">
         <v>56.682027649769594</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>206</v>
       </c>
@@ -5874,18 +6399,22 @@
       <c r="H131" s="1">
         <v>7.3</v>
       </c>
-      <c r="I131" s="10">
-        <v>0</v>
+      <c r="I131" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J131" s="1">
         <v>51.612903225806448</v>
       </c>
       <c r="K131" s="3">
-        <f t="shared" ref="K131:K194" si="2">MEDIAN(G131,H131,J131)</f>
+        <f t="shared" ref="K131:K194" si="4">MEDIAN(G131,H131,J131)</f>
         <v>51.612903225806448</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="2" t="str">
+        <f t="shared" ref="L131:L194" si="5">IF(AND(K131&gt;50,G131&gt;50,J131&gt;50),"Buy","Hold")</f>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>207</v>
       </c>
@@ -5910,18 +6439,22 @@
       <c r="H132" s="1">
         <v>5.8000000000000007</v>
       </c>
-      <c r="I132" s="10">
-        <v>0</v>
+      <c r="I132" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J132" s="1">
         <v>25.345622119815669</v>
       </c>
       <c r="K132" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.345622119815669</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>208</v>
       </c>
@@ -5946,18 +6479,22 @@
       <c r="H133" s="1">
         <v>4.3999999999999995</v>
       </c>
-      <c r="I133" s="10">
-        <v>0</v>
+      <c r="I133" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J133" s="1">
         <v>38.47926267281106</v>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38.47926267281106</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>209</v>
       </c>
@@ -5982,18 +6519,22 @@
       <c r="H134" s="1">
         <v>2.9000000000000004</v>
       </c>
-      <c r="I134" s="10">
-        <v>0</v>
+      <c r="I134" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J134" s="1">
         <v>32.027649769585253</v>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.027649769585253</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>210</v>
       </c>
@@ -6018,18 +6559,22 @@
       <c r="H135" s="1">
         <v>1.4000000000000001</v>
       </c>
-      <c r="I135" s="10">
-        <v>0</v>
+      <c r="I135" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J135" s="1">
         <v>25.11520737327189</v>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.11520737327189</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>211</v>
       </c>
@@ -6054,18 +6599,22 @@
       <c r="H136" s="1">
         <v>0</v>
       </c>
-      <c r="I136" s="10">
-        <v>0</v>
+      <c r="I136" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J136" s="1">
         <v>89.631336405529964</v>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86.7</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>77</v>
       </c>
@@ -6091,17 +6640,21 @@
         <v>70.5</v>
       </c>
       <c r="I137" s="10">
-        <v>5.8252427184465994E-2</v>
+        <v>5.8252427184465994</v>
       </c>
       <c r="J137" s="1">
         <v>63.824884792626726</v>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>109</v>
       </c>
@@ -6127,17 +6680,21 @@
         <v>44.1</v>
       </c>
       <c r="I138" s="10">
-        <v>9.550561797752799E-2</v>
+        <v>9.550561797752799</v>
       </c>
       <c r="J138" s="1">
         <v>53.917050691244242</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53.917050691244242</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>28</v>
       </c>
@@ -6163,17 +6720,21 @@
         <v>86.7</v>
       </c>
       <c r="I139" s="10">
-        <v>2.9787234042553123E-2</v>
+        <v>2.9787234042553123</v>
       </c>
       <c r="J139" s="1">
         <v>83.179723502304142</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83.179723502304142</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>53</v>
       </c>
@@ -6199,17 +6760,21 @@
         <v>94.1</v>
       </c>
       <c r="I140" s="10">
-        <v>8.7649402390438169E-2</v>
+        <v>8.7649402390438169</v>
       </c>
       <c r="J140" s="1">
         <v>73.963133640552996</v>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73.963133640552996</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>31</v>
       </c>
@@ -6235,17 +6800,21 @@
         <v>68</v>
       </c>
       <c r="I141" s="10">
-        <v>-1.2345679012345734E-2</v>
+        <v>-1.2345679012345734</v>
       </c>
       <c r="J141" s="1">
         <v>96.082949308755758</v>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>180</v>
       </c>
@@ -6271,17 +6840,21 @@
         <v>69.3</v>
       </c>
       <c r="I142" s="10">
-        <v>-2.7027027027027084E-2</v>
+        <v>-2.7027027027027084</v>
       </c>
       <c r="J142" s="1">
         <v>68.433179723502306</v>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>120</v>
       </c>
@@ -6307,17 +6880,21 @@
         <v>16</v>
       </c>
       <c r="I143" s="10">
-        <v>-0.51807228915662651</v>
+        <v>-51.807228915662648</v>
       </c>
       <c r="J143" s="1">
         <v>57.142857142857139</v>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57.142857142857139</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>104</v>
       </c>
@@ -6343,17 +6920,21 @@
         <v>81.3</v>
       </c>
       <c r="I144" s="10">
-        <v>0.46913580246913589</v>
+        <v>46.91358024691359</v>
       </c>
       <c r="J144" s="1">
         <v>69.585253456221196</v>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>92</v>
       </c>
@@ -6379,17 +6960,21 @@
         <v>70.599999999999994</v>
       </c>
       <c r="I145" s="10">
-        <v>5.4054054054053946E-2</v>
+        <v>5.4054054054053946</v>
       </c>
       <c r="J145" s="1">
         <v>78.801843317972356</v>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>167</v>
       </c>
@@ -6415,17 +7000,21 @@
         <v>58.599999999999994</v>
       </c>
       <c r="I146" s="10">
-        <v>-0.27419354838709675</v>
+        <v>-27.419354838709676</v>
       </c>
       <c r="J146" s="1">
         <v>70.7373271889401</v>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.599999999999994</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>168</v>
       </c>
@@ -6451,17 +7040,21 @@
         <v>22.6</v>
       </c>
       <c r="I147" s="10">
-        <v>-0.80722891566265065</v>
+        <v>-80.722891566265062</v>
       </c>
       <c r="J147" s="1">
         <v>76.958525345622121</v>
       </c>
       <c r="K147" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>184</v>
       </c>
@@ -6487,17 +7080,21 @@
         <v>66.600000000000009</v>
       </c>
       <c r="I148" s="10">
-        <v>-0.12</v>
+        <v>-12</v>
       </c>
       <c r="J148" s="1">
         <v>68.663594470046093</v>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.600000000000009</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>103</v>
       </c>
@@ -6523,17 +7120,21 @@
         <v>25.3</v>
       </c>
       <c r="I149" s="10">
-        <v>-0.31428571428571428</v>
+        <v>-31.428571428571427</v>
       </c>
       <c r="J149" s="1">
         <v>71.428571428571431</v>
       </c>
       <c r="K149" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28.000000000000004</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>60</v>
       </c>
@@ -6559,17 +7160,21 @@
         <v>53.300000000000004</v>
       </c>
       <c r="I150" s="10">
-        <v>-0.5982142857142857</v>
+        <v>-59.821428571428569</v>
       </c>
       <c r="J150" s="1">
         <v>74.884792626728114</v>
       </c>
       <c r="K150" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53.300000000000004</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>63</v>
       </c>
@@ -6595,17 +7200,21 @@
         <v>4</v>
       </c>
       <c r="I151" s="10">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="J151" s="1">
         <v>52.534562211981559</v>
       </c>
       <c r="K151" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>26</v>
       </c>
@@ -6631,17 +7240,21 @@
         <v>13.3</v>
       </c>
       <c r="I152" s="10">
-        <v>-0.33333333333333337</v>
+        <v>-33.333333333333336</v>
       </c>
       <c r="J152" s="1">
         <v>69.354838709677409</v>
       </c>
       <c r="K152" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34.599999999999994</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>24</v>
       </c>
@@ -6667,17 +7280,21 @@
         <v>50.6</v>
       </c>
       <c r="I153" s="10">
-        <v>-9.009009009009139E-3</v>
+        <v>-0.9009009009009139</v>
       </c>
       <c r="J153" s="1">
         <v>69.58525345622121</v>
       </c>
       <c r="K153" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54.6</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>33</v>
       </c>
@@ -6703,17 +7320,21 @@
         <v>20</v>
       </c>
       <c r="I154" s="10">
-        <v>-0.43396226415094341</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="J154" s="1">
         <v>70.046082949308754</v>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>22</v>
       </c>
@@ -6739,17 +7360,21 @@
         <v>24</v>
       </c>
       <c r="I155" s="10">
-        <v>-0.3076923076923076</v>
+        <v>-30.769230769230759</v>
       </c>
       <c r="J155" s="1">
         <v>65.437788018433181</v>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>70</v>
       </c>
@@ -6775,17 +7400,21 @@
         <v>46.6</v>
       </c>
       <c r="I156" s="10">
-        <v>-0.3529411764705882</v>
+        <v>-35.294117647058819</v>
       </c>
       <c r="J156" s="1">
         <v>58.525345622119815</v>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46.6</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>42</v>
       </c>
@@ -6811,17 +7440,21 @@
         <v>62.6</v>
       </c>
       <c r="I157" s="10">
-        <v>0.6179775280898876</v>
+        <v>61.797752808988761</v>
       </c>
       <c r="J157" s="1">
         <v>82.027649769585253</v>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82.027649769585253</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>55</v>
       </c>
@@ -6847,17 +7480,21 @@
         <v>6.6000000000000005</v>
       </c>
       <c r="I158" s="10">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="J158" s="1">
         <v>65.89861751152074</v>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.6000000000000005</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>118</v>
       </c>
@@ -6883,17 +7520,21 @@
         <v>0</v>
       </c>
       <c r="I159" s="10">
-        <v>-0.76923076923076916</v>
+        <v>-76.92307692307692</v>
       </c>
       <c r="J159" s="1">
         <v>33.870967741935488</v>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>119</v>
       </c>
@@ -6919,17 +7560,21 @@
         <v>8</v>
       </c>
       <c r="I160" s="10">
-        <v>-0.55000000000000004</v>
+        <v>-55.000000000000007</v>
       </c>
       <c r="J160" s="1">
         <v>41.474654377880185</v>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.299999999999997</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>136</v>
       </c>
@@ -6955,17 +7600,21 @@
         <v>33.300000000000004</v>
       </c>
       <c r="I161" s="10">
-        <v>-0.26315789473684215</v>
+        <v>-26.315789473684216</v>
       </c>
       <c r="J161" s="1">
         <v>67.741935483870975</v>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.300000000000004</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>15</v>
       </c>
@@ -6991,17 +7640,21 @@
         <v>12</v>
       </c>
       <c r="I162" s="10">
-        <v>-0.77215189873417722</v>
+        <v>-77.215189873417728</v>
       </c>
       <c r="J162" s="1">
         <v>55.76036866359447</v>
       </c>
       <c r="K162" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55.76036866359447</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>174</v>
       </c>
@@ -7027,17 +7680,21 @@
         <v>5.3</v>
       </c>
       <c r="I163" s="10">
-        <v>-0.31428571428571428</v>
+        <v>-31.428571428571427</v>
       </c>
       <c r="J163" s="1">
         <v>44.930875576036868</v>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>34</v>
       </c>
@@ -7063,17 +7720,21 @@
         <v>14.6</v>
       </c>
       <c r="I164" s="10">
-        <v>1.5263157894736841</v>
+        <v>152.63157894736841</v>
       </c>
       <c r="J164" s="1">
         <v>64.055299539170505</v>
       </c>
       <c r="K164" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.055299539170505</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>83</v>
       </c>
@@ -7099,17 +7760,21 @@
         <v>32</v>
       </c>
       <c r="I165" s="10">
-        <v>9.0909090909090828E-2</v>
+        <v>9.0909090909090828</v>
       </c>
       <c r="J165" s="1">
         <v>59.677419354838712</v>
       </c>
       <c r="K165" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59.677419354838712</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>30</v>
       </c>
@@ -7135,17 +7800,21 @@
         <v>96</v>
       </c>
       <c r="I166" s="10">
-        <v>6.6666666666666652E-2</v>
+        <v>6.6666666666666652</v>
       </c>
       <c r="J166" s="1">
         <v>87.78801843317973</v>
       </c>
       <c r="K166" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87.78801843317973</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>178</v>
       </c>
@@ -7171,17 +7840,21 @@
         <v>88</v>
       </c>
       <c r="I167" s="10">
-        <v>0.25490196078431371</v>
+        <v>25.490196078431371</v>
       </c>
       <c r="J167" s="1">
         <v>71.658986175115217</v>
       </c>
       <c r="K167" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>71.658986175115217</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>101</v>
       </c>
@@ -7207,17 +7880,21 @@
         <v>10.6</v>
       </c>
       <c r="I168" s="10">
-        <v>-0.43661971830985913</v>
+        <v>-43.661971830985912</v>
       </c>
       <c r="J168" s="1">
         <v>67.741935483870975</v>
       </c>
       <c r="K168" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.741935483870975</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>123</v>
       </c>
@@ -7243,17 +7920,21 @@
         <v>29.299999999999997</v>
       </c>
       <c r="I169" s="10">
-        <v>0.60000000000000009</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="J169" s="1">
         <v>41.474654377880185</v>
       </c>
       <c r="K169" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.474654377880185</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>80</v>
       </c>
@@ -7279,17 +7960,21 @@
         <v>93.300000000000011</v>
       </c>
       <c r="I170" s="10">
-        <v>0.4336283185840708</v>
+        <v>43.362831858407077</v>
       </c>
       <c r="J170" s="1">
         <v>71.889400921658989</v>
       </c>
       <c r="K170" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93.300000000000011</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>40</v>
       </c>
@@ -7321,11 +8006,15 @@
         <v>84.792626728110605</v>
       </c>
       <c r="K171" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>84.792626728110605</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>117</v>
       </c>
@@ -7351,17 +8040,21 @@
         <v>30.599999999999998</v>
       </c>
       <c r="I172" s="10">
-        <v>-0.22222222222222221</v>
+        <v>-22.222222222222221</v>
       </c>
       <c r="J172" s="1">
         <v>41.013824884792626</v>
       </c>
       <c r="K172" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.599999999999998</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>82</v>
       </c>
@@ -7387,17 +8080,21 @@
         <v>2.6</v>
       </c>
       <c r="I173" s="10">
-        <v>-0.79245283018867929</v>
+        <v>-79.245283018867923</v>
       </c>
       <c r="J173" s="1">
         <v>35.714285714285715</v>
       </c>
       <c r="K173" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.3</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>21</v>
       </c>
@@ -7423,17 +8120,21 @@
         <v>86.6</v>
       </c>
       <c r="I174" s="10">
-        <v>0.26984126984126977</v>
+        <v>26.984126984126977</v>
       </c>
       <c r="J174" s="1">
         <v>89.170506912442391</v>
       </c>
       <c r="K174" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>95</v>
       </c>
@@ -7459,17 +8160,21 @@
         <v>28.000000000000004</v>
       </c>
       <c r="I175" s="10">
-        <v>-1.538461538461533E-2</v>
+        <v>-1.538461538461533</v>
       </c>
       <c r="J175" s="1">
         <v>60.36866359447005</v>
       </c>
       <c r="K175" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28.000000000000004</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>111</v>
       </c>
@@ -7495,17 +8200,21 @@
         <v>41.3</v>
       </c>
       <c r="I176" s="10">
-        <v>-6.25E-2</v>
+        <v>-6.25</v>
       </c>
       <c r="J176" s="1">
         <v>49.308755760368662</v>
       </c>
       <c r="K176" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.3</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>64</v>
       </c>
@@ -7531,17 +8240,21 @@
         <v>21.3</v>
       </c>
       <c r="I177" s="10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J177" s="1">
         <v>73.732718894009224</v>
       </c>
       <c r="K177" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.3</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>18</v>
       </c>
@@ -7567,17 +8280,21 @@
         <v>97.3</v>
       </c>
       <c r="I178" s="10">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="J178" s="1">
         <v>91.244239631336413</v>
       </c>
       <c r="K178" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91.244239631336413</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>169</v>
       </c>
@@ -7603,17 +8320,21 @@
         <v>52</v>
       </c>
       <c r="I179" s="10">
-        <v>0.28571428571428559</v>
+        <v>28.571428571428559</v>
       </c>
       <c r="J179" s="1">
         <v>56.451612903225808</v>
       </c>
       <c r="K179" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53.300000000000004</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>8</v>
       </c>
@@ -7639,17 +8360,21 @@
         <v>36</v>
       </c>
       <c r="I180" s="10">
-        <v>-0.41463414634146345</v>
+        <v>-41.463414634146346</v>
       </c>
       <c r="J180" s="1">
         <v>66.820276497695858</v>
       </c>
       <c r="K180" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>16</v>
       </c>
@@ -7681,11 +8406,15 @@
         <v>63.824884792626733</v>
       </c>
       <c r="K181" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63.824884792626733</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>5</v>
       </c>
@@ -7711,17 +8440,21 @@
         <v>80</v>
       </c>
       <c r="I182" s="10">
-        <v>0.11111111111111116</v>
+        <v>11.111111111111116</v>
       </c>
       <c r="J182" s="1">
         <v>73.732718894009224</v>
       </c>
       <c r="K182" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73.732718894009224</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>32</v>
       </c>
@@ -7747,17 +8480,21 @@
         <v>1.3</v>
       </c>
       <c r="I183" s="10">
-        <v>-0.7857142857142857</v>
+        <v>-78.571428571428569</v>
       </c>
       <c r="J183" s="1">
         <v>53.917050691244242</v>
       </c>
       <c r="K183" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53.917050691244242</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>11</v>
       </c>
@@ -7783,17 +8520,21 @@
         <v>48</v>
       </c>
       <c r="I184" s="10">
-        <v>3.1746031746031855E-2</v>
+        <v>3.1746031746031855</v>
       </c>
       <c r="J184" s="1">
         <v>66.359447004608285</v>
       </c>
       <c r="K184" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>59</v>
       </c>
@@ -7819,17 +8560,21 @@
         <v>84</v>
       </c>
       <c r="I185" s="10">
-        <v>0.16883116883116878</v>
+        <v>16.883116883116877</v>
       </c>
       <c r="J185" s="1">
         <v>52.073732718894007</v>
       </c>
       <c r="K185" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52.073732718894007</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>14</v>
       </c>
@@ -7855,17 +8600,21 @@
         <v>98.6</v>
       </c>
       <c r="I186" s="10">
-        <v>0.28947368421052633</v>
+        <v>28.947368421052634</v>
       </c>
       <c r="J186" s="1">
         <v>86.866359447004612</v>
       </c>
       <c r="K186" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>54</v>
       </c>
@@ -7891,17 +8640,21 @@
         <v>60</v>
       </c>
       <c r="I187" s="10">
-        <v>6.6666666666666652E-2</v>
+        <v>6.6666666666666652</v>
       </c>
       <c r="J187" s="1">
         <v>70.276497695852527</v>
       </c>
       <c r="K187" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.3</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>79</v>
       </c>
@@ -7927,17 +8680,21 @@
         <v>42.6</v>
       </c>
       <c r="I188" s="10">
-        <v>7.8431372549019551E-2</v>
+        <v>7.8431372549019551</v>
       </c>
       <c r="J188" s="1">
         <v>65.668202764976968</v>
       </c>
       <c r="K188" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>106</v>
       </c>
@@ -7963,17 +8720,21 @@
         <v>45.300000000000004</v>
       </c>
       <c r="I189" s="10">
-        <v>-0.22580645161290325</v>
+        <v>-22.580645161290324</v>
       </c>
       <c r="J189" s="1">
         <v>57.834101382488484</v>
       </c>
       <c r="K189" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57.834101382488484</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>113</v>
       </c>
@@ -7999,17 +8760,21 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I190" s="10">
-        <v>-0.73076923076923084</v>
+        <v>-73.07692307692308</v>
       </c>
       <c r="J190" s="1">
         <v>65.668202764976968</v>
       </c>
       <c r="K190" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.6</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>12</v>
       </c>
@@ -8035,17 +8800,21 @@
         <v>94.6</v>
       </c>
       <c r="I191" s="10">
-        <v>-8.9430894308943132E-2</v>
+        <v>-8.9430894308943127</v>
       </c>
       <c r="J191" s="1">
         <v>96.774193548387103</v>
       </c>
       <c r="K191" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94.6</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>58</v>
       </c>
@@ -8071,17 +8840,21 @@
         <v>54.6</v>
       </c>
       <c r="I192" s="10">
-        <v>-0.21739130434782605</v>
+        <v>-21.739130434782606</v>
       </c>
       <c r="J192" s="1">
         <v>65.437788018433181</v>
       </c>
       <c r="K192" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54.6</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>75</v>
       </c>
@@ -8107,17 +8880,21 @@
         <v>74.599999999999994</v>
       </c>
       <c r="I193" s="10">
-        <v>-0.37765957446808507</v>
+        <v>-37.765957446808507</v>
       </c>
       <c r="J193" s="1">
         <v>87.557603686635957</v>
       </c>
       <c r="K193" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>74.599999999999994</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>91</v>
       </c>
@@ -8143,17 +8920,21 @@
         <v>65.3</v>
       </c>
       <c r="I194" s="10">
-        <v>0.96875</v>
+        <v>96.875</v>
       </c>
       <c r="J194" s="1">
         <v>86.63594470046084</v>
       </c>
       <c r="K194" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86.63594470046084</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L194" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>181</v>
       </c>
@@ -8179,17 +8960,21 @@
         <v>82.6</v>
       </c>
       <c r="I195" s="10">
-        <v>6.6666666666666652E-2</v>
+        <v>6.6666666666666652</v>
       </c>
       <c r="J195" s="1">
         <v>56.68202764976958</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K215" si="3">MEDIAN(G195,H195,J195)</f>
+        <f t="shared" ref="K195:K215" si="6">MEDIAN(G195,H195,J195)</f>
         <v>74.599999999999994</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195" s="2" t="str">
+        <f t="shared" ref="L195:L215" si="7">IF(AND(K195&gt;50,G195&gt;50,J195&gt;50),"Buy","Hold")</f>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>212</v>
       </c>
@@ -8214,18 +8999,22 @@
       <c r="H196" s="1">
         <v>92</v>
       </c>
-      <c r="I196" s="10">
-        <v>0</v>
+      <c r="I196" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J196" s="1">
         <v>88.709677419354847</v>
       </c>
       <c r="K196" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>88.709677419354847</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>213</v>
       </c>
@@ -8250,18 +9039,22 @@
       <c r="H197" s="1">
         <v>89.3</v>
       </c>
-      <c r="I197" s="10">
-        <v>0</v>
+      <c r="I197" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J197" s="1">
         <v>33.410138248847929</v>
       </c>
       <c r="K197" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>214</v>
       </c>
@@ -8286,18 +9079,22 @@
       <c r="H198" s="1">
         <v>85.3</v>
       </c>
-      <c r="I198" s="10">
-        <v>0</v>
+      <c r="I198" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J198" s="1">
         <v>29.032258064516132</v>
       </c>
       <c r="K198" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29.032258064516132</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L198" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>215</v>
       </c>
@@ -8322,18 +9119,22 @@
       <c r="H199" s="1">
         <v>78.600000000000009</v>
       </c>
-      <c r="I199" s="10">
-        <v>0</v>
+      <c r="I199" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J199" s="1">
         <v>59.907834101382484</v>
       </c>
       <c r="K199" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>78.600000000000009</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>216</v>
       </c>
@@ -8358,18 +9159,22 @@
       <c r="H200" s="1">
         <v>77.3</v>
       </c>
-      <c r="I200" s="10">
-        <v>0</v>
+      <c r="I200" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J200" s="1">
         <v>50</v>
       </c>
       <c r="K200" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>77.3</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>217</v>
       </c>
@@ -8394,18 +9199,22 @@
       <c r="H201" s="1">
         <v>76</v>
       </c>
-      <c r="I201" s="10">
-        <v>0</v>
+      <c r="I201" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J201" s="1">
         <v>43.087557603686633</v>
       </c>
       <c r="K201" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L201" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>218</v>
       </c>
@@ -8430,18 +9239,22 @@
       <c r="H202" s="1">
         <v>73.3</v>
       </c>
-      <c r="I202" s="10">
-        <v>0</v>
+      <c r="I202" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J202" s="1">
         <v>34.562211981566819</v>
       </c>
       <c r="K202" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42.6</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L202" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>219</v>
       </c>
@@ -8466,18 +9279,22 @@
       <c r="H203" s="1">
         <v>72</v>
       </c>
-      <c r="I203" s="10">
-        <v>0</v>
+      <c r="I203" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J203" s="1">
         <v>30.875576036866359</v>
       </c>
       <c r="K203" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.6</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L203" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>220</v>
       </c>
@@ -8502,18 +9319,22 @@
       <c r="H204" s="1">
         <v>61.3</v>
       </c>
-      <c r="I204" s="10">
-        <v>0</v>
+      <c r="I204" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J204" s="1">
         <v>16.129032258064516</v>
       </c>
       <c r="K204" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L204" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>221</v>
       </c>
@@ -8538,18 +9359,22 @@
       <c r="H205" s="1">
         <v>57.3</v>
       </c>
-      <c r="I205" s="10">
-        <v>0</v>
+      <c r="I205" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J205" s="1">
         <v>28.571428571428569</v>
       </c>
       <c r="K205" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57.3</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L205" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>222</v>
       </c>
@@ -8574,18 +9399,22 @@
       <c r="H206" s="1">
         <v>49.3</v>
       </c>
-      <c r="I206" s="10">
-        <v>0</v>
+      <c r="I206" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J206" s="1">
         <v>30.645161290322584</v>
       </c>
       <c r="K206" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49.3</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L206" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>223</v>
       </c>
@@ -8610,18 +9439,22 @@
       <c r="H207" s="1">
         <v>34.599999999999994</v>
       </c>
-      <c r="I207" s="10">
-        <v>0</v>
+      <c r="I207" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J207" s="1">
         <v>26.728110599078342</v>
       </c>
       <c r="K207" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.728110599078342</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L207" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>224</v>
       </c>
@@ -8646,18 +9479,22 @@
       <c r="H208" s="1">
         <v>26.6</v>
       </c>
-      <c r="I208" s="10">
-        <v>0</v>
+      <c r="I208" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J208" s="1">
         <v>26.267281105990779</v>
       </c>
       <c r="K208" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.6</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>225</v>
       </c>
@@ -8682,18 +9519,22 @@
       <c r="H209" s="1">
         <v>17.299999999999997</v>
       </c>
-      <c r="I209" s="10">
-        <v>0</v>
+      <c r="I209" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J209" s="1">
         <v>38.940092165898619</v>
       </c>
       <c r="K209" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.940092165898619</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L209" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>227</v>
       </c>
@@ -8718,18 +9559,22 @@
       <c r="H210" s="1">
         <v>56.000000000000007</v>
       </c>
-      <c r="I210" s="10">
-        <v>0</v>
+      <c r="I210" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J210" s="1">
         <v>27.649769585253459</v>
       </c>
       <c r="K210" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50.6</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L210" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>128</v>
       </c>
@@ -8755,17 +9600,21 @@
         <v>18.600000000000001</v>
       </c>
       <c r="I211" s="10">
-        <v>-4.5454545454545414E-2</v>
+        <v>-4.5454545454545414</v>
       </c>
       <c r="J211" s="1">
         <v>28.110599078341014</v>
       </c>
       <c r="K211" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28.110599078341014</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L211" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>23</v>
       </c>
@@ -8791,17 +9640,21 @@
         <v>38.6</v>
       </c>
       <c r="I212" s="10">
-        <v>-0.17241379310344818</v>
+        <v>-17.241379310344819</v>
       </c>
       <c r="J212" s="1">
         <v>97.465437788018434</v>
       </c>
       <c r="K212" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>88</v>
       </c>
@@ -8827,17 +9680,21 @@
         <v>36</v>
       </c>
       <c r="I213" s="10">
-        <v>-0.41463414634146345</v>
+        <v>-41.463414634146346</v>
       </c>
       <c r="J213" s="1">
         <v>59.907834101382484</v>
       </c>
       <c r="K213" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>78</v>
       </c>
@@ -8863,17 +9720,21 @@
         <v>44</v>
       </c>
       <c r="I214" s="10">
-        <v>-8.163265306122458E-2</v>
+        <v>-8.163265306122458</v>
       </c>
       <c r="J214" s="1">
         <v>69.815668202764982</v>
       </c>
       <c r="K214" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L214" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>41</v>
       </c>
@@ -8899,18 +9760,22 @@
         <v>62.6</v>
       </c>
       <c r="I215" s="10">
-        <v>-0.30172413793103448</v>
+        <v>-30.172413793103448</v>
       </c>
       <c r="J215" s="1">
         <v>75.576036866359445</v>
       </c>
       <c r="K215" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.6</v>
       </c>
+      <c r="L215" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hold</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K215" xr:uid="{62635B1A-709D-4771-A284-C9977E8DCD30}"/>
+  <autoFilter ref="A1:L215" xr:uid="{62635B1A-709D-4771-A284-C9977E8DCD30}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:L173">
     <sortCondition ref="L1:L173"/>
   </sortState>

--- a/src/assets/Composite_Ranks_Data.xlsx
+++ b/src/assets/Composite_Ranks_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\iCloudDrive\Documents\Longhorn Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95CA0D3-073F-43EB-B6BE-DFF64AD776B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C67CC6-E041-4FC5-A099-4711CE5E0CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{FE3D8065-EAB9-4A37-A7F2-CD334F4E0B63}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="233">
   <si>
     <t>Sport</t>
   </si>
@@ -729,6 +729,15 @@
   </si>
   <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Retired</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62635B1A-709D-4771-A284-C9977E8DCD30}">
-  <dimension ref="A1:L215"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L215"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="O163" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,12 +1180,12 @@
     <col min="9" max="9" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1213,8 +1222,11 @@
       <c r="L1" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
@@ -1253,8 +1265,11 @@
         <f>IF(AND(K2&gt;50,G2&gt;50,J2&gt;50),"Buy","Hold")</f>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>127</v>
       </c>
@@ -1293,8 +1308,11 @@
         <f t="shared" ref="L3:L66" si="1">IF(AND(K3&gt;50,G3&gt;50,J3&gt;50),"Buy","Hold")</f>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -1333,8 +1351,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1373,8 +1394,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>132</v>
       </c>
@@ -1413,8 +1437,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -1453,8 +1480,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1493,8 +1523,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>140</v>
       </c>
@@ -1533,8 +1566,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
@@ -1573,8 +1609,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
@@ -1613,8 +1652,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1653,8 +1695,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>114</v>
       </c>
@@ -1693,8 +1738,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>107</v>
       </c>
@@ -1733,8 +1781,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -1773,8 +1824,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>179</v>
       </c>
@@ -1813,8 +1867,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>142</v>
       </c>
@@ -1853,8 +1910,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
@@ -1893,8 +1953,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>143</v>
       </c>
@@ -1933,8 +1996,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>144</v>
       </c>
@@ -1973,8 +2039,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>145</v>
       </c>
@@ -2013,8 +2082,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>175</v>
       </c>
@@ -2053,8 +2125,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>72</v>
       </c>
@@ -2093,8 +2168,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>146</v>
       </c>
@@ -2133,8 +2211,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -2173,8 +2254,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>147</v>
       </c>
@@ -2213,8 +2297,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>84</v>
       </c>
@@ -2253,8 +2340,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>148</v>
       </c>
@@ -2293,8 +2383,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>149</v>
       </c>
@@ -2333,8 +2426,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>133</v>
       </c>
@@ -2373,8 +2469,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>108</v>
       </c>
@@ -2413,8 +2512,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>150</v>
       </c>
@@ -2453,8 +2555,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>151</v>
       </c>
@@ -2493,8 +2598,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>152</v>
       </c>
@@ -2533,8 +2641,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
@@ -2573,8 +2684,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
@@ -2613,8 +2727,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>25</v>
       </c>
@@ -2653,8 +2770,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>153</v>
       </c>
@@ -2693,8 +2813,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>154</v>
       </c>
@@ -2733,8 +2856,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>155</v>
       </c>
@@ -2773,8 +2899,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>156</v>
       </c>
@@ -2813,8 +2942,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>89</v>
       </c>
@@ -2853,8 +2985,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>157</v>
       </c>
@@ -2893,8 +3028,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>43</v>
       </c>
@@ -2933,8 +3071,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>81</v>
       </c>
@@ -2973,8 +3114,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>186</v>
       </c>
@@ -3013,8 +3157,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>187</v>
       </c>
@@ -3053,8 +3200,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>188</v>
       </c>
@@ -3093,8 +3243,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>189</v>
       </c>
@@ -3133,8 +3286,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>190</v>
       </c>
@@ -3173,8 +3329,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>191</v>
       </c>
@@ -3213,8 +3372,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>192</v>
       </c>
@@ -3253,8 +3415,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>193</v>
       </c>
@@ -3293,8 +3458,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>194</v>
       </c>
@@ -3333,8 +3501,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>195</v>
       </c>
@@ -3373,8 +3544,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>196</v>
       </c>
@@ -3413,8 +3587,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>226</v>
       </c>
@@ -3453,8 +3630,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>197</v>
       </c>
@@ -3493,8 +3673,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>198</v>
       </c>
@@ -3533,8 +3716,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>129</v>
       </c>
@@ -3573,8 +3759,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>73</v>
       </c>
@@ -3613,8 +3802,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>9</v>
       </c>
@@ -3653,8 +3845,11 @@
         <f t="shared" si="1"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>110</v>
       </c>
@@ -3693,8 +3888,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>158</v>
       </c>
@@ -3733,8 +3931,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>159</v>
       </c>
@@ -3773,8 +3974,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>160</v>
       </c>
@@ -3813,8 +4017,11 @@
         <f t="shared" si="1"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>161</v>
       </c>
@@ -3853,8 +4060,11 @@
         <f t="shared" ref="L67:L130" si="3">IF(AND(K67&gt;50,G67&gt;50,J67&gt;50),"Buy","Hold")</f>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>176</v>
       </c>
@@ -3893,8 +4103,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>162</v>
       </c>
@@ -3933,8 +4146,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>163</v>
       </c>
@@ -3973,8 +4189,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>126</v>
       </c>
@@ -4013,8 +4232,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>46</v>
       </c>
@@ -4037,7 +4259,7 @@
         <v>89.7</v>
       </c>
       <c r="H72" s="1">
-        <v>95.5</v>
+        <v>94.1</v>
       </c>
       <c r="I72" s="10">
         <v>-1.8656716417910446</v>
@@ -4053,8 +4275,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>37</v>
       </c>
@@ -4077,7 +4302,7 @@
         <v>63.2</v>
       </c>
       <c r="H73" s="1">
-        <v>45.5</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="I73" s="10">
         <v>13.559322033898313</v>
@@ -4093,8 +4318,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>27</v>
       </c>
@@ -4117,7 +4345,7 @@
         <v>83.8</v>
       </c>
       <c r="H74" s="1">
-        <v>57.3</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="I74" s="10">
         <v>-4.5454545454545521</v>
@@ -4127,14 +4355,17 @@
       </c>
       <c r="K74" s="3">
         <f t="shared" si="2"/>
-        <v>57.3</v>
+        <v>40.783410138248847</v>
       </c>
       <c r="L74" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>51</v>
       </c>
@@ -4157,7 +4388,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="H75" s="1">
-        <v>26.400000000000002</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="I75" s="10">
         <v>-0.62111801242237252</v>
@@ -4167,14 +4398,17 @@
       </c>
       <c r="K75" s="3">
         <f t="shared" si="2"/>
-        <v>26.400000000000002</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L75" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>125</v>
       </c>
@@ -4197,7 +4431,7 @@
         <v>100</v>
       </c>
       <c r="H76" s="1">
-        <v>42.6</v>
+        <v>23.5</v>
       </c>
       <c r="I76" s="10">
         <v>21.893491124260379</v>
@@ -4213,8 +4447,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>112</v>
       </c>
@@ -4237,7 +4474,7 @@
         <v>13.200000000000001</v>
       </c>
       <c r="H77" s="1">
-        <v>58.8</v>
+        <v>41.099999999999994</v>
       </c>
       <c r="I77" s="10">
         <v>-4.4776119402985204</v>
@@ -4247,14 +4484,17 @@
       </c>
       <c r="K77" s="3">
         <f t="shared" si="2"/>
-        <v>58.8</v>
+        <v>41.099999999999994</v>
       </c>
       <c r="L77" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>65</v>
       </c>
@@ -4277,7 +4517,7 @@
         <v>77.900000000000006</v>
       </c>
       <c r="H78" s="1">
-        <v>69.099999999999994</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="I78" s="10">
         <v>-37.446808510638299</v>
@@ -4287,14 +4527,17 @@
       </c>
       <c r="K78" s="3">
         <f t="shared" si="2"/>
-        <v>69.099999999999994</v>
+        <v>59.216589861751146</v>
       </c>
       <c r="L78" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>50</v>
       </c>
@@ -4317,7 +4560,7 @@
         <v>51.4</v>
       </c>
       <c r="H79" s="1">
-        <v>79.400000000000006</v>
+        <v>63.2</v>
       </c>
       <c r="I79" s="10">
         <v>-4.0540540540540455</v>
@@ -4327,14 +4570,17 @@
       </c>
       <c r="K79" s="3">
         <f t="shared" si="2"/>
-        <v>73.271889400921651</v>
+        <v>63.2</v>
       </c>
       <c r="L79" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>93</v>
       </c>
@@ -4357,7 +4603,7 @@
         <v>23.5</v>
       </c>
       <c r="H80" s="1">
-        <v>36.700000000000003</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I80" s="10">
         <v>22.08588957055213</v>
@@ -4367,14 +4613,17 @@
       </c>
       <c r="K80" s="3">
         <f t="shared" si="2"/>
-        <v>36.700000000000003</v>
+        <v>23.5</v>
       </c>
       <c r="L80" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>177</v>
       </c>
@@ -4397,7 +4646,7 @@
         <v>32.300000000000004</v>
       </c>
       <c r="H81" s="1">
-        <v>47</v>
+        <v>27.9</v>
       </c>
       <c r="I81" s="10">
         <v>-1.6129032258064502</v>
@@ -4407,14 +4656,17 @@
       </c>
       <c r="K81" s="3">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>32.300000000000004</v>
       </c>
       <c r="L81" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>164</v>
       </c>
@@ -4437,7 +4689,7 @@
         <v>50</v>
       </c>
       <c r="H82" s="1">
-        <v>48.5</v>
+        <v>29.4</v>
       </c>
       <c r="I82" s="10">
         <v>-6.3492063492063489</v>
@@ -4453,8 +4705,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>135</v>
       </c>
@@ -4477,7 +4732,7 @@
         <v>8.7999999999999989</v>
       </c>
       <c r="H83" s="1">
-        <v>38.200000000000003</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="I83" s="10">
         <v>4.0697674418604501</v>
@@ -4487,14 +4742,17 @@
       </c>
       <c r="K83" s="3">
         <f t="shared" si="2"/>
-        <v>34.331797235023046</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="L83" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>20</v>
       </c>
@@ -4517,7 +4775,7 @@
         <v>11.700000000000001</v>
       </c>
       <c r="H84" s="1">
-        <v>54.400000000000006</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I84" s="10">
         <v>2.1164021164021385</v>
@@ -4527,14 +4785,17 @@
       </c>
       <c r="K84" s="3">
         <f t="shared" si="2"/>
-        <v>54.400000000000006</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="L84" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>96</v>
       </c>
@@ -4557,7 +4818,7 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="H85" s="1">
-        <v>73.5</v>
+        <v>57.3</v>
       </c>
       <c r="I85" s="10">
         <v>11.707317073170721</v>
@@ -4573,8 +4834,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -4597,7 +4861,7 @@
         <v>45.5</v>
       </c>
       <c r="H86" s="1">
-        <v>63.2</v>
+        <v>47</v>
       </c>
       <c r="I86" s="10">
         <v>4.4999999999999929</v>
@@ -4607,14 +4871,17 @@
       </c>
       <c r="K86" s="3">
         <f t="shared" si="2"/>
-        <v>63.2</v>
+        <v>47</v>
       </c>
       <c r="L86" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>56</v>
       </c>
@@ -4637,7 +4904,7 @@
         <v>75</v>
       </c>
       <c r="H87" s="1">
-        <v>22</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="I87" s="10">
         <v>-13.888888888888884</v>
@@ -4653,8 +4920,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>35</v>
       </c>
@@ -4677,7 +4947,7 @@
         <v>25</v>
       </c>
       <c r="H88" s="1">
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="I88" s="10">
         <v>18.217054263565878</v>
@@ -4693,8 +4963,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>47</v>
       </c>
@@ -4717,7 +4990,7 @@
         <v>7.3</v>
       </c>
       <c r="H89" s="1">
-        <v>61.7</v>
+        <v>44.1</v>
       </c>
       <c r="I89" s="10">
         <v>-4.4554455445544487</v>
@@ -4727,14 +5000,17 @@
       </c>
       <c r="K89" s="3">
         <f t="shared" si="2"/>
-        <v>61.7</v>
+        <v>44.1</v>
       </c>
       <c r="L89" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>100</v>
       </c>
@@ -4757,7 +5033,7 @@
         <v>42.6</v>
       </c>
       <c r="H90" s="1">
-        <v>60.199999999999996</v>
+        <v>42.6</v>
       </c>
       <c r="I90" s="10">
         <v>13.089005235602102</v>
@@ -4767,14 +5043,17 @@
       </c>
       <c r="K90" s="3">
         <f t="shared" si="2"/>
-        <v>60.199999999999996</v>
+        <v>42.6</v>
       </c>
       <c r="L90" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>122</v>
       </c>
@@ -4797,7 +5076,7 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="H91" s="1">
-        <v>23.5</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="I91" s="10">
         <v>5.5944055944055826</v>
@@ -4807,14 +5086,17 @@
       </c>
       <c r="K91" s="3">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="L91" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>17</v>
       </c>
@@ -4837,7 +5119,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H92" s="1">
-        <v>33.800000000000004</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="I92" s="10">
         <v>4.705882352941182</v>
@@ -4847,14 +5129,17 @@
       </c>
       <c r="K92" s="3">
         <f t="shared" si="2"/>
-        <v>33.800000000000004</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="L92" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>61</v>
       </c>
@@ -4877,7 +5162,7 @@
         <v>69.099999999999994</v>
       </c>
       <c r="H93" s="1">
-        <v>82.3</v>
+        <v>66.100000000000009</v>
       </c>
       <c r="I93" s="10">
         <v>-15.61181434599156</v>
@@ -4887,14 +5172,17 @@
       </c>
       <c r="K93" s="3">
         <f t="shared" si="2"/>
-        <v>82.3</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="L93" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>182</v>
       </c>
@@ -4917,7 +5205,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="H94" s="1">
-        <v>50</v>
+        <v>30.8</v>
       </c>
       <c r="I94" s="10">
         <v>8.287292817679548</v>
@@ -4927,14 +5215,17 @@
       </c>
       <c r="K94" s="3">
         <f t="shared" si="2"/>
-        <v>38.200000000000003</v>
+        <v>30.8</v>
       </c>
       <c r="L94" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>71</v>
       </c>
@@ -4957,7 +5248,7 @@
         <v>70.5</v>
       </c>
       <c r="H95" s="1">
-        <v>72</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="I95" s="10">
         <v>7.2815533980582492</v>
@@ -4967,14 +5258,17 @@
       </c>
       <c r="K95" s="3">
         <f t="shared" si="2"/>
-        <v>70.5</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="L95" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -4997,7 +5291,7 @@
         <v>67.600000000000009</v>
       </c>
       <c r="H96" s="1">
-        <v>32.300000000000004</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="I96" s="10">
         <v>5.3254437869822535</v>
@@ -5013,8 +5307,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>36</v>
       </c>
@@ -5037,7 +5334,7 @@
         <v>30.8</v>
       </c>
       <c r="H97" s="1">
-        <v>67.600000000000009</v>
+        <v>51.4</v>
       </c>
       <c r="I97" s="10">
         <v>6.8965517241379226</v>
@@ -5047,14 +5344,17 @@
       </c>
       <c r="K97" s="3">
         <f t="shared" si="2"/>
-        <v>67.600000000000009</v>
+        <v>51.4</v>
       </c>
       <c r="L97" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>74</v>
       </c>
@@ -5077,7 +5377,7 @@
         <v>29.4</v>
       </c>
       <c r="H98" s="1">
-        <v>77.900000000000006</v>
+        <v>61.7</v>
       </c>
       <c r="I98" s="10">
         <v>3.2258064516129004</v>
@@ -5087,14 +5387,17 @@
       </c>
       <c r="K98" s="3">
         <f t="shared" si="2"/>
-        <v>77.900000000000006</v>
+        <v>61.7</v>
       </c>
       <c r="L98" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>87</v>
       </c>
@@ -5117,7 +5420,7 @@
         <v>22</v>
       </c>
       <c r="H99" s="1">
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="I99" s="10">
         <v>-17.021276595744684</v>
@@ -5133,8 +5436,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>121</v>
       </c>
@@ -5157,7 +5463,7 @@
         <v>95.5</v>
       </c>
       <c r="H100" s="1">
-        <v>29.4</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="I100" s="10">
         <v>10.365853658536594</v>
@@ -5173,8 +5479,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>97</v>
       </c>
@@ -5197,7 +5506,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="H101" s="1">
-        <v>39.700000000000003</v>
+        <v>20.5</v>
       </c>
       <c r="I101" s="10">
         <v>-3.3149171270718258</v>
@@ -5213,8 +5522,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>115</v>
       </c>
@@ -5237,7 +5549,7 @@
         <v>73.5</v>
       </c>
       <c r="H102" s="1">
-        <v>85.2</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="I102" s="10">
         <v>-1.6806722689075682</v>
@@ -5247,14 +5559,17 @@
       </c>
       <c r="K102" s="3">
         <f t="shared" si="2"/>
-        <v>80.41474654377879</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="L102" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>130</v>
       </c>
@@ -5277,7 +5592,7 @@
         <v>26.400000000000002</v>
       </c>
       <c r="H103" s="1">
-        <v>80.800000000000011</v>
+        <v>64.7</v>
       </c>
       <c r="I103" s="10">
         <v>-11.637931034482751</v>
@@ -5287,14 +5602,17 @@
       </c>
       <c r="K103" s="3">
         <f t="shared" si="2"/>
-        <v>65.207373271889395</v>
+        <v>64.7</v>
       </c>
       <c r="L103" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>86</v>
       </c>
@@ -5317,7 +5635,7 @@
         <v>54.400000000000006</v>
       </c>
       <c r="H104" s="1">
-        <v>88.2</v>
+        <v>80.800000000000011</v>
       </c>
       <c r="I104" s="10">
         <v>-14.516129032258075</v>
@@ -5327,14 +5645,17 @@
       </c>
       <c r="K104" s="3">
         <f t="shared" si="2"/>
-        <v>88.2</v>
+        <v>80.800000000000011</v>
       </c>
       <c r="L104" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>39</v>
       </c>
@@ -5357,7 +5678,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="H105" s="1">
-        <v>25</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="I105" s="10">
         <v>-18.354430379746834</v>
@@ -5373,8 +5694,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>57</v>
       </c>
@@ -5397,7 +5721,7 @@
         <v>76.400000000000006</v>
       </c>
       <c r="H106" s="1">
-        <v>75</v>
+        <v>58.8</v>
       </c>
       <c r="I106" s="10">
         <v>7.2115384615384581</v>
@@ -5407,14 +5731,17 @@
       </c>
       <c r="K106" s="3">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>61.290322580645167</v>
       </c>
       <c r="L106" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>102</v>
       </c>
@@ -5437,7 +5764,7 @@
         <v>88.2</v>
       </c>
       <c r="H107" s="1">
-        <v>76.400000000000006</v>
+        <v>60.199999999999996</v>
       </c>
       <c r="I107" s="10">
         <v>-13.513513513513509</v>
@@ -5453,8 +5780,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>49</v>
       </c>
@@ -5477,7 +5807,7 @@
         <v>27.900000000000002</v>
       </c>
       <c r="H108" s="1">
-        <v>52.900000000000006</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="I108" s="10">
         <v>1.0582010582010692</v>
@@ -5487,14 +5817,17 @@
       </c>
       <c r="K108" s="3">
         <f t="shared" si="2"/>
-        <v>52.900000000000006</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="L108" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>98</v>
       </c>
@@ -5517,7 +5850,7 @@
         <v>64.7</v>
       </c>
       <c r="H109" s="1">
-        <v>27.900000000000002</v>
+        <v>7.3</v>
       </c>
       <c r="I109" s="10">
         <v>-9.8265895953757223</v>
@@ -5533,8 +5866,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>165</v>
       </c>
@@ -5557,7 +5893,7 @@
         <v>52.900000000000006</v>
       </c>
       <c r="H110" s="1">
-        <v>92.600000000000009</v>
+        <v>89.7</v>
       </c>
       <c r="I110" s="10">
         <v>-15.613382899628247</v>
@@ -5567,14 +5903,17 @@
       </c>
       <c r="K110" s="3">
         <f t="shared" si="2"/>
-        <v>92.600000000000009</v>
+        <v>89.7</v>
       </c>
       <c r="L110" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>90</v>
       </c>
@@ -5597,7 +5936,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="H111" s="1">
-        <v>89.7</v>
+        <v>86.7</v>
       </c>
       <c r="I111" s="10">
         <v>-5.4901960784313637</v>
@@ -5607,14 +5946,17 @@
       </c>
       <c r="K111" s="3">
         <f t="shared" si="2"/>
-        <v>88.018433179723502</v>
+        <v>86.7</v>
       </c>
       <c r="L111" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>124</v>
       </c>
@@ -5637,7 +5979,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="H112" s="1">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="I112" s="10">
         <v>0</v>
@@ -5647,14 +5989,17 @@
       </c>
       <c r="K112" s="3">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="L112" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>44</v>
       </c>
@@ -5693,8 +6038,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>131</v>
       </c>
@@ -5717,7 +6065,7 @@
         <v>58.8</v>
       </c>
       <c r="H114" s="1">
-        <v>41.099999999999994</v>
+        <v>22</v>
       </c>
       <c r="I114" s="10">
         <v>16.959064327485372</v>
@@ -5733,8 +6081,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>48</v>
       </c>
@@ -5757,7 +6108,7 @@
         <v>97</v>
       </c>
       <c r="H115" s="1">
-        <v>51.4</v>
+        <v>32.300000000000004</v>
       </c>
       <c r="I115" s="10">
         <v>3.7837837837837895</v>
@@ -5773,8 +6124,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>166</v>
       </c>
@@ -5813,8 +6167,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>116</v>
       </c>
@@ -5837,7 +6194,7 @@
         <v>35.199999999999996</v>
       </c>
       <c r="H117" s="1">
-        <v>64.7</v>
+        <v>48.5</v>
       </c>
       <c r="I117" s="10">
         <v>-13.67924528301886</v>
@@ -5847,14 +6204,17 @@
       </c>
       <c r="K117" s="3">
         <f t="shared" si="2"/>
-        <v>58.986175115207374</v>
+        <v>48.5</v>
       </c>
       <c r="L117" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>76</v>
       </c>
@@ -5877,7 +6237,7 @@
         <v>92.600000000000009</v>
       </c>
       <c r="H118" s="1">
-        <v>55.800000000000004</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="I118" s="10">
         <v>-33.796296296296305</v>
@@ -5893,8 +6253,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>134</v>
       </c>
@@ -5917,7 +6280,7 @@
         <v>14.7</v>
       </c>
       <c r="H119" s="1">
-        <v>35.199999999999996</v>
+        <v>14.7</v>
       </c>
       <c r="I119" s="10">
         <v>4.0935672514619936</v>
@@ -5927,14 +6290,17 @@
       </c>
       <c r="K119" s="3">
         <f t="shared" si="2"/>
-        <v>16.820276497695854</v>
+        <v>14.7</v>
       </c>
       <c r="L119" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>85</v>
       </c>
@@ -5957,7 +6323,7 @@
         <v>98.5</v>
       </c>
       <c r="H120" s="1">
-        <v>91.100000000000009</v>
+        <v>88.2</v>
       </c>
       <c r="I120" s="10">
         <v>31.196581196581196</v>
@@ -5967,14 +6333,17 @@
       </c>
       <c r="K120" s="3">
         <f t="shared" si="2"/>
-        <v>91.100000000000009</v>
+        <v>90.092165898617509</v>
       </c>
       <c r="L120" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>6</v>
       </c>
@@ -5997,7 +6366,7 @@
         <v>91.100000000000009</v>
       </c>
       <c r="H121" s="1">
-        <v>83.8</v>
+        <v>67.600000000000009</v>
       </c>
       <c r="I121" s="10">
         <v>-8.5106382978723421</v>
@@ -6013,8 +6382,11 @@
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>69</v>
       </c>
@@ -6037,7 +6409,7 @@
         <v>33.800000000000004</v>
       </c>
       <c r="H122" s="1">
-        <v>66.100000000000009</v>
+        <v>50</v>
       </c>
       <c r="I122" s="10">
         <v>-14.084507042253524</v>
@@ -6047,14 +6419,17 @@
       </c>
       <c r="K122" s="3">
         <f t="shared" si="2"/>
-        <v>66.100000000000009</v>
+        <v>50</v>
       </c>
       <c r="L122" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>66</v>
       </c>
@@ -6077,7 +6452,7 @@
         <v>17.599999999999998</v>
       </c>
       <c r="H123" s="1">
-        <v>30.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I123" s="10">
         <v>23.899371069182386</v>
@@ -6087,14 +6462,17 @@
       </c>
       <c r="K123" s="3">
         <f t="shared" si="2"/>
-        <v>30.8</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="L123" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>199</v>
       </c>
@@ -6117,7 +6495,7 @@
         <v>48.5</v>
       </c>
       <c r="H124" s="1">
-        <v>17.599999999999998</v>
+        <v>45.5</v>
       </c>
       <c r="I124" s="10" t="s">
         <v>228</v>
@@ -6133,8 +6511,11 @@
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>200</v>
       </c>
@@ -6157,7 +6538,7 @@
         <v>66.100000000000009</v>
       </c>
       <c r="H125" s="1">
-        <v>16.100000000000001</v>
+        <v>92.600000000000009</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>228</v>
@@ -6167,14 +6548,17 @@
       </c>
       <c r="K125" s="3">
         <f t="shared" si="2"/>
-        <v>16.100000000000001</v>
+        <v>66.100000000000009</v>
       </c>
       <c r="L125" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>201</v>
       </c>
@@ -6197,7 +6581,7 @@
         <v>82.3</v>
       </c>
       <c r="H126" s="1">
-        <v>14.7</v>
+        <v>98.5</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>228</v>
@@ -6207,14 +6591,17 @@
       </c>
       <c r="K126" s="3">
         <f t="shared" si="2"/>
-        <v>82.3</v>
+        <v>96.31336405529953</v>
       </c>
       <c r="L126" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>202</v>
       </c>
@@ -6237,7 +6624,7 @@
         <v>85.2</v>
       </c>
       <c r="H127" s="1">
-        <v>13.200000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>228</v>
@@ -6247,14 +6634,17 @@
       </c>
       <c r="K127" s="3">
         <f t="shared" si="2"/>
-        <v>22.58064516129032</v>
+        <v>82.3</v>
       </c>
       <c r="L127" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>203</v>
       </c>
@@ -6277,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="1">
-        <v>11.700000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="I128" s="10" t="s">
         <v>228</v>
@@ -6287,14 +6677,17 @@
       </c>
       <c r="K128" s="3">
         <f t="shared" si="2"/>
-        <v>11.700000000000001</v>
+        <v>48.387096774193544</v>
       </c>
       <c r="L128" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>204</v>
       </c>
@@ -6317,7 +6710,7 @@
         <v>80.800000000000011</v>
       </c>
       <c r="H129" s="1">
-        <v>10.199999999999999</v>
+        <v>72</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>228</v>
@@ -6327,14 +6720,17 @@
       </c>
       <c r="K129" s="3">
         <f t="shared" si="2"/>
-        <v>18.202764976958527</v>
+        <v>72</v>
       </c>
       <c r="L129" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>205</v>
       </c>
@@ -6357,7 +6753,7 @@
         <v>44.1</v>
       </c>
       <c r="H130" s="1">
-        <v>8.7999999999999989</v>
+        <v>67.600000000000009</v>
       </c>
       <c r="I130" s="10" t="s">
         <v>228</v>
@@ -6367,14 +6763,17 @@
       </c>
       <c r="K130" s="3">
         <f t="shared" si="2"/>
-        <v>44.1</v>
+        <v>56.682027649769594</v>
       </c>
       <c r="L130" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>206</v>
       </c>
@@ -6397,7 +6796,7 @@
         <v>61.7</v>
       </c>
       <c r="H131" s="1">
-        <v>7.3</v>
+        <v>83.8</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>228</v>
@@ -6407,14 +6806,17 @@
       </c>
       <c r="K131" s="3">
         <f t="shared" ref="K131:K194" si="4">MEDIAN(G131,H131,J131)</f>
-        <v>51.612903225806448</v>
+        <v>61.7</v>
       </c>
       <c r="L131" s="2" t="str">
         <f t="shared" ref="L131:L194" si="5">IF(AND(K131&gt;50,G131&gt;50,J131&gt;50),"Buy","Hold")</f>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>207</v>
       </c>
@@ -6437,7 +6839,7 @@
         <v>94.1</v>
       </c>
       <c r="H132" s="1">
-        <v>5.8000000000000007</v>
+        <v>73.5</v>
       </c>
       <c r="I132" s="10" t="s">
         <v>228</v>
@@ -6447,14 +6849,17 @@
       </c>
       <c r="K132" s="3">
         <f t="shared" si="4"/>
-        <v>25.345622119815669</v>
+        <v>73.5</v>
       </c>
       <c r="L132" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>208</v>
       </c>
@@ -6477,7 +6882,7 @@
         <v>41.099999999999994</v>
       </c>
       <c r="H133" s="1">
-        <v>4.3999999999999995</v>
+        <v>33.800000000000004</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>228</v>
@@ -6493,8 +6898,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>209</v>
       </c>
@@ -6517,7 +6925,7 @@
         <v>47</v>
       </c>
       <c r="H134" s="1">
-        <v>2.9000000000000004</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>228</v>
@@ -6527,14 +6935,17 @@
       </c>
       <c r="K134" s="3">
         <f t="shared" si="4"/>
-        <v>32.027649769585253</v>
+        <v>47</v>
       </c>
       <c r="L134" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>210</v>
       </c>
@@ -6557,7 +6968,7 @@
         <v>72</v>
       </c>
       <c r="H135" s="1">
-        <v>1.4000000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>228</v>
@@ -6567,14 +6978,17 @@
       </c>
       <c r="K135" s="3">
         <f t="shared" si="4"/>
-        <v>25.11520737327189</v>
+        <v>72</v>
       </c>
       <c r="L135" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>211</v>
       </c>
@@ -6597,7 +7011,7 @@
         <v>86.7</v>
       </c>
       <c r="H136" s="1">
-        <v>0</v>
+        <v>67.600000000000009</v>
       </c>
       <c r="I136" s="10" t="s">
         <v>228</v>
@@ -6613,8 +7027,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>77</v>
       </c>
@@ -6637,7 +7054,7 @@
         <v>79.400000000000006</v>
       </c>
       <c r="H137" s="1">
-        <v>70.5</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="I137" s="10">
         <v>5.8252427184465994</v>
@@ -6647,14 +7064,17 @@
       </c>
       <c r="K137" s="3">
         <f t="shared" si="4"/>
-        <v>70.5</v>
+        <v>63.824884792626726</v>
       </c>
       <c r="L137" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>109</v>
       </c>
@@ -6677,7 +7097,7 @@
         <v>60.199999999999996</v>
       </c>
       <c r="H138" s="1">
-        <v>44.1</v>
+        <v>25</v>
       </c>
       <c r="I138" s="10">
         <v>9.550561797752799</v>
@@ -6693,8 +7113,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>28</v>
       </c>
@@ -6717,7 +7140,7 @@
         <v>20.5</v>
       </c>
       <c r="H139" s="1">
-        <v>86.7</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="I139" s="10">
         <v>2.9787234042553123</v>
@@ -6727,14 +7150,17 @@
       </c>
       <c r="K139" s="3">
         <f t="shared" si="4"/>
-        <v>83.179723502304142</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="L139" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>53</v>
       </c>
@@ -6757,7 +7183,7 @@
         <v>4.3999999999999995</v>
       </c>
       <c r="H140" s="1">
-        <v>94.1</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="I140" s="10">
         <v>8.7649402390438169</v>
@@ -6773,8 +7199,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>31</v>
       </c>
@@ -6813,8 +7242,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>180</v>
       </c>
@@ -6853,8 +7285,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>120</v>
       </c>
@@ -6893,8 +7328,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>104</v>
       </c>
@@ -6933,8 +7371,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>92</v>
       </c>
@@ -6973,8 +7414,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>167</v>
       </c>
@@ -7013,8 +7457,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>168</v>
       </c>
@@ -7053,8 +7500,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>184</v>
       </c>
@@ -7093,8 +7543,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>103</v>
       </c>
@@ -7133,8 +7586,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>60</v>
       </c>
@@ -7173,8 +7629,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>63</v>
       </c>
@@ -7213,8 +7672,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>26</v>
       </c>
@@ -7253,8 +7715,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>24</v>
       </c>
@@ -7293,8 +7758,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>33</v>
       </c>
@@ -7333,8 +7801,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>22</v>
       </c>
@@ -7373,8 +7844,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>70</v>
       </c>
@@ -7413,8 +7887,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>42</v>
       </c>
@@ -7453,8 +7930,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>55</v>
       </c>
@@ -7493,8 +7973,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>118</v>
       </c>
@@ -7533,8 +8016,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>119</v>
       </c>
@@ -7573,8 +8059,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>136</v>
       </c>
@@ -7613,8 +8102,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>15</v>
       </c>
@@ -7653,8 +8145,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>174</v>
       </c>
@@ -7693,8 +8188,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>34</v>
       </c>
@@ -7733,8 +8231,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>83</v>
       </c>
@@ -7773,8 +8274,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>30</v>
       </c>
@@ -7813,8 +8317,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>178</v>
       </c>
@@ -7853,8 +8360,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>101</v>
       </c>
@@ -7893,8 +8403,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>123</v>
       </c>
@@ -7933,8 +8446,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>80</v>
       </c>
@@ -7973,8 +8489,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>40</v>
       </c>
@@ -8013,8 +8532,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>117</v>
       </c>
@@ -8053,8 +8575,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>82</v>
       </c>
@@ -8093,8 +8618,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>21</v>
       </c>
@@ -8133,8 +8661,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>95</v>
       </c>
@@ -8173,8 +8704,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>111</v>
       </c>
@@ -8213,8 +8747,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>64</v>
       </c>
@@ -8253,8 +8790,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>18</v>
       </c>
@@ -8293,8 +8833,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>169</v>
       </c>
@@ -8333,8 +8876,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>8</v>
       </c>
@@ -8373,8 +8919,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>16</v>
       </c>
@@ -8413,8 +8962,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>5</v>
       </c>
@@ -8453,8 +9005,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>32</v>
       </c>
@@ -8493,8 +9048,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>11</v>
       </c>
@@ -8533,8 +9091,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>59</v>
       </c>
@@ -8573,8 +9134,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>14</v>
       </c>
@@ -8613,8 +9177,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>54</v>
       </c>
@@ -8653,8 +9220,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>79</v>
       </c>
@@ -8693,8 +9263,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>106</v>
       </c>
@@ -8733,8 +9306,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>113</v>
       </c>
@@ -8773,8 +9349,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>12</v>
       </c>
@@ -8813,8 +9392,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>58</v>
       </c>
@@ -8853,8 +9435,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>75</v>
       </c>
@@ -8893,8 +9478,11 @@
         <f t="shared" si="5"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>91</v>
       </c>
@@ -8933,8 +9521,11 @@
         <f t="shared" si="5"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>181</v>
       </c>
@@ -8973,8 +9564,11 @@
         <f t="shared" ref="L195:L215" si="7">IF(AND(K195&gt;50,G195&gt;50,J195&gt;50),"Buy","Hold")</f>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>212</v>
       </c>
@@ -9013,8 +9607,11 @@
         <f t="shared" si="7"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>213</v>
       </c>
@@ -9053,8 +9650,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>214</v>
       </c>
@@ -9093,8 +9693,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>215</v>
       </c>
@@ -9133,8 +9736,11 @@
         <f t="shared" si="7"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>216</v>
       </c>
@@ -9173,8 +9779,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>217</v>
       </c>
@@ -9213,8 +9822,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>218</v>
       </c>
@@ -9253,8 +9865,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>219</v>
       </c>
@@ -9293,8 +9908,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>220</v>
       </c>
@@ -9333,8 +9951,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>221</v>
       </c>
@@ -9373,8 +9994,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>222</v>
       </c>
@@ -9413,8 +10037,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>223</v>
       </c>
@@ -9453,8 +10080,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>224</v>
       </c>
@@ -9493,8 +10123,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>225</v>
       </c>
@@ -9533,8 +10166,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>227</v>
       </c>
@@ -9573,8 +10209,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>128</v>
       </c>
@@ -9613,8 +10252,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>23</v>
       </c>
@@ -9653,8 +10295,11 @@
         <f t="shared" si="7"/>
         <v>Buy</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>88</v>
       </c>
@@ -9693,8 +10338,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>78</v>
       </c>
@@ -9733,8 +10381,11 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>41</v>
       </c>
@@ -9773,9 +10424,12 @@
         <f t="shared" si="7"/>
         <v>Hold</v>
       </c>
+      <c r="M215" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L215" xr:uid="{62635B1A-709D-4771-A284-C9977E8DCD30}"/>
+  <autoFilter ref="A1:M215" xr:uid="{62635B1A-709D-4771-A284-C9977E8DCD30}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:L173">
     <sortCondition ref="L1:L173"/>
   </sortState>

--- a/src/assets/Composite_Ranks_Data.xlsx
+++ b/src/assets/Composite_Ranks_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\iCloudDrive\Documents\Longhorn Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C67CC6-E041-4FC5-A099-4711CE5E0CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6E5D8-11E4-46DD-95C0-7F08EDAD09F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{FE3D8065-EAB9-4A37-A7F2-CD334F4E0B63}"/>
   </bookViews>
@@ -1162,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62635B1A-709D-4771-A284-C9977E8DCD30}">
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="O163" sqref="O1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1185,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>95.6</v>
       </c>
       <c r="I2" s="10">
-        <v>5.8823529411764719</v>
+        <v>8.5427135678392006</v>
       </c>
       <c r="J2" s="1">
         <v>91.705069124423972</v>
@@ -1268,8 +1268,9 @@
       <c r="M2" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>127</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>49.2</v>
       </c>
       <c r="I3" s="10">
-        <v>-65.771812080536904</v>
+        <v>-64</v>
       </c>
       <c r="J3" s="1">
         <v>40.092165898617509</v>
@@ -1311,8 +1312,9 @@
       <c r="M3" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -1335,17 +1337,17 @@
         <v>27.500000000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>60.8</v>
+        <v>57.9</v>
       </c>
       <c r="I4" s="10">
-        <v>-19.310344827586199</v>
+        <v>-28.837209302325583</v>
       </c>
       <c r="J4" s="1">
         <v>58.986175115207374</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>58.986175115207374</v>
+        <v>57.9</v>
       </c>
       <c r="L4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1354,8 +1356,9 @@
       <c r="M4" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1378,10 +1381,10 @@
         <v>88.4</v>
       </c>
       <c r="H5" s="1">
-        <v>15.9</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="I5" s="10">
-        <v>-65.486725663716811</v>
+        <v>-67.857142857142861</v>
       </c>
       <c r="J5" s="1">
         <v>39.631336405529957</v>
@@ -1397,8 +1400,9 @@
       <c r="M5" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>132</v>
       </c>
@@ -1421,10 +1425,10 @@
         <v>39.1</v>
       </c>
       <c r="H6" s="1">
-        <v>17.299999999999997</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="I6" s="10">
-        <v>-25</v>
+        <v>-14.705882352941179</v>
       </c>
       <c r="J6" s="1">
         <v>37.788018433179722</v>
@@ -1440,8 +1444,9 @@
       <c r="M6" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -1464,10 +1469,10 @@
         <v>36.199999999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>88.4</v>
+        <v>91.3</v>
       </c>
       <c r="I7" s="10">
-        <v>-17.910447761194035</v>
+        <v>-13.658536585365844</v>
       </c>
       <c r="J7" s="1">
         <v>44.700460829493089</v>
@@ -1483,8 +1488,9 @@
       <c r="M7" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1507,10 +1513,10 @@
         <v>55.000000000000007</v>
       </c>
       <c r="H8" s="1">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="I8" s="10">
-        <v>-32.216014897579157</v>
+        <v>-29.925650557620809</v>
       </c>
       <c r="J8" s="1">
         <v>54.60829493087558</v>
@@ -1526,8 +1532,9 @@
       <c r="M8" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>140</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="10">
-        <v>-80.088495575221245</v>
+        <v>-75.770925110132154</v>
       </c>
       <c r="J9" s="1">
         <v>37.096774193548384</v>
@@ -1569,8 +1576,9 @@
       <c r="M9" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
@@ -1593,10 +1601,10 @@
         <v>49.2</v>
       </c>
       <c r="H10" s="1">
-        <v>24.6</v>
+        <v>33.300000000000004</v>
       </c>
       <c r="I10" s="10">
-        <v>-27.516778523489926</v>
+        <v>-12.58278145695364</v>
       </c>
       <c r="J10" s="1">
         <v>36.866359447004612</v>
@@ -1612,8 +1620,9 @@
       <c r="M10" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
@@ -1636,10 +1645,10 @@
         <v>98.5</v>
       </c>
       <c r="H11" s="1">
-        <v>44.9</v>
+        <v>43.4</v>
       </c>
       <c r="I11" s="10">
-        <v>-70.471464019851112</v>
+        <v>-68.440594059405953</v>
       </c>
       <c r="J11" s="1">
         <v>52.073732718894007</v>
@@ -1655,8 +1664,9 @@
       <c r="M11" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1679,10 +1689,10 @@
         <v>56.499999999999993</v>
       </c>
       <c r="H12" s="1">
-        <v>36.199999999999996</v>
+        <v>44.9</v>
       </c>
       <c r="I12" s="10">
-        <v>1.7182130584192379</v>
+        <v>13.513513513513509</v>
       </c>
       <c r="J12" s="1">
         <v>52.534562211981566</v>
@@ -1698,8 +1708,9 @@
       <c r="M12" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>114</v>
       </c>
@@ -1722,17 +1733,17 @@
         <v>76.8</v>
       </c>
       <c r="H13" s="1">
-        <v>56.499999999999993</v>
+        <v>60.8</v>
       </c>
       <c r="I13" s="10">
-        <v>-16.176470588235293</v>
+        <v>-10.638297872340431</v>
       </c>
       <c r="J13" s="1">
         <v>36.635944700460826</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>56.499999999999993</v>
+        <v>60.8</v>
       </c>
       <c r="L13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1741,8 +1752,9 @@
       <c r="M13" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>107</v>
       </c>
@@ -1765,10 +1777,10 @@
         <v>11.5</v>
       </c>
       <c r="H14" s="1">
-        <v>62.3</v>
+        <v>63.7</v>
       </c>
       <c r="I14" s="10">
-        <v>32.075471698113198</v>
+        <v>38.173302107728333</v>
       </c>
       <c r="J14" s="1">
         <v>36.175115207373267</v>
@@ -1784,8 +1796,9 @@
       <c r="M14" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -1808,10 +1821,10 @@
         <v>17.299999999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>55.000000000000007</v>
+        <v>52.1</v>
       </c>
       <c r="I15" s="10">
-        <v>-27.659574468085111</v>
+        <v>-29.670329670329664</v>
       </c>
       <c r="J15" s="1">
         <v>32.94930875576037</v>
@@ -1827,8 +1840,9 @@
       <c r="M15" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>179</v>
       </c>
@@ -1851,10 +1865,10 @@
         <v>4.3</v>
       </c>
       <c r="H16" s="1">
-        <v>65.2</v>
+        <v>66.600000000000009</v>
       </c>
       <c r="I16" s="10">
-        <v>23.595505617977519</v>
+        <v>23.134328358208943</v>
       </c>
       <c r="J16" s="1">
         <v>47.926267281105993</v>
@@ -1870,8 +1884,9 @@
       <c r="M16" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>142</v>
       </c>
@@ -1894,17 +1909,17 @@
         <v>89.8</v>
       </c>
       <c r="H17" s="1">
-        <v>69.5</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="I17" s="10">
-        <v>-30.841121495327094</v>
+        <v>-20.517560073937158</v>
       </c>
       <c r="J17" s="1">
         <v>50.230414746543786</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>69.5</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="L17" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1913,8 +1928,9 @@
       <c r="M17" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
@@ -1937,10 +1953,10 @@
         <v>68.100000000000009</v>
       </c>
       <c r="H18" s="1">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="I18" s="10">
-        <v>-40.758293838862556</v>
+        <v>-36.220472440944874</v>
       </c>
       <c r="J18" s="1">
         <v>64.055299539170505</v>
@@ -1956,8 +1972,9 @@
       <c r="M18" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>143</v>
       </c>
@@ -1980,10 +1997,10 @@
         <v>8.6</v>
       </c>
       <c r="H19" s="1">
-        <v>81.100000000000009</v>
+        <v>79.7</v>
       </c>
       <c r="I19" s="10">
-        <v>-39.10891089108911</v>
+        <v>-36.764705882352942</v>
       </c>
       <c r="J19" s="1">
         <v>43.778801843317972</v>
@@ -1999,8 +2016,9 @@
       <c r="M19" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>144</v>
       </c>
@@ -2023,10 +2041,10 @@
         <v>37.6</v>
       </c>
       <c r="H20" s="1">
-        <v>47.8</v>
+        <v>46.300000000000004</v>
       </c>
       <c r="I20" s="10">
-        <v>-33.40292275574113</v>
+        <v>-35.564853556485353</v>
       </c>
       <c r="J20" s="1">
         <v>30.875576036866359</v>
@@ -2042,8 +2060,9 @@
       <c r="M20" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>145</v>
       </c>
@@ -2066,7 +2085,7 @@
         <v>71</v>
       </c>
       <c r="H21" s="1">
-        <v>27.500000000000004</v>
+        <v>24.6</v>
       </c>
       <c r="I21" s="10">
         <v>8.0291970802919721</v>
@@ -2085,8 +2104,9 @@
       <c r="M21" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>175</v>
       </c>
@@ -2109,10 +2129,10 @@
         <v>15.9</v>
       </c>
       <c r="H22" s="1">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="I22" s="10">
-        <v>43.478260869565212</v>
+        <v>58.333333333333329</v>
       </c>
       <c r="J22" s="1">
         <v>55.990783410138249</v>
@@ -2128,8 +2148,9 @@
       <c r="M22" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>72</v>
       </c>
@@ -2152,10 +2173,10 @@
         <v>53.6</v>
       </c>
       <c r="H23" s="1">
-        <v>14.399999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="I23" s="10">
-        <v>-76.579925650557627</v>
+        <v>-74.025974025974023</v>
       </c>
       <c r="J23" s="1">
         <v>26.267281105990783</v>
@@ -2171,8 +2192,9 @@
       <c r="M23" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>146</v>
       </c>
@@ -2195,17 +2217,17 @@
         <v>94.199999999999989</v>
       </c>
       <c r="H24" s="1">
-        <v>69.5</v>
+        <v>68.100000000000009</v>
       </c>
       <c r="I24" s="10">
-        <v>7.3684210526315796</v>
+        <v>3.5211267605633756</v>
       </c>
       <c r="J24" s="1">
         <v>42.626728110599075</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="0"/>
-        <v>69.5</v>
+        <v>68.100000000000009</v>
       </c>
       <c r="L24" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2214,8 +2236,9 @@
       <c r="M24" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -2241,7 +2264,7 @@
         <v>76.8</v>
       </c>
       <c r="I25" s="10">
-        <v>-26.044226044226061</v>
+        <v>-13.975903614457842</v>
       </c>
       <c r="J25" s="1">
         <v>91.474654377880171</v>
@@ -2257,8 +2280,9 @@
       <c r="M25" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>147</v>
       </c>
@@ -2284,7 +2308,7 @@
         <v>5.7</v>
       </c>
       <c r="I26" s="10">
-        <v>64.999999999999986</v>
+        <v>62.790697674418603</v>
       </c>
       <c r="J26" s="1">
         <v>23.041474654377879</v>
@@ -2300,8 +2324,9 @@
       <c r="M26" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>84</v>
       </c>
@@ -2324,10 +2349,10 @@
         <v>18.8</v>
       </c>
       <c r="H27" s="1">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="I27" s="10">
-        <v>-107.48129675810473</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="1">
         <v>25.11520737327189</v>
@@ -2343,8 +2368,9 @@
       <c r="M27" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>148</v>
       </c>
@@ -2367,17 +2393,17 @@
         <v>73.900000000000006</v>
       </c>
       <c r="H28" s="1">
-        <v>43.4</v>
+        <v>37.6</v>
       </c>
       <c r="I28" s="10">
-        <v>18.644067796610166</v>
+        <v>13.636363636363624</v>
       </c>
       <c r="J28" s="1">
         <v>23.963133640552996</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="0"/>
-        <v>43.4</v>
+        <v>37.6</v>
       </c>
       <c r="L28" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2386,8 +2412,9 @@
       <c r="M28" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>149</v>
       </c>
@@ -2413,7 +2440,7 @@
         <v>4.3</v>
       </c>
       <c r="I29" s="10">
-        <v>-62.732919254658384</v>
+        <v>-70</v>
       </c>
       <c r="J29" s="1">
         <v>24.884792626728107</v>
@@ -2429,8 +2456,9 @@
       <c r="M29" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>133</v>
       </c>
@@ -2456,7 +2484,7 @@
         <v>8.6</v>
       </c>
       <c r="I30" s="10">
-        <v>-61.53846153846154</v>
+        <v>-52.830188679245296</v>
       </c>
       <c r="J30" s="1">
         <v>23.041474654377879</v>
@@ -2472,8 +2500,9 @@
       <c r="M30" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>108</v>
       </c>
@@ -2499,7 +2528,7 @@
         <v>59.4</v>
       </c>
       <c r="I31" s="10">
-        <v>-15.58441558441559</v>
+        <v>-21.533442088091348</v>
       </c>
       <c r="J31" s="1">
         <v>50.691244239631338</v>
@@ -2515,8 +2544,9 @@
       <c r="M31" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>150</v>
       </c>
@@ -2539,10 +2569,10 @@
         <v>43.4</v>
       </c>
       <c r="H32" s="1">
-        <v>63.7</v>
+        <v>65.2</v>
       </c>
       <c r="I32" s="10">
-        <v>-32.038834951456316</v>
+        <v>-26.746987951807235</v>
       </c>
       <c r="J32" s="1">
         <v>21.889400921658986</v>
@@ -2558,8 +2588,9 @@
       <c r="M32" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>151</v>
       </c>
@@ -2585,7 +2616,7 @@
         <v>72.399999999999991</v>
       </c>
       <c r="I33" s="10">
-        <v>48.235294117647065</v>
+        <v>48.837209302325604</v>
       </c>
       <c r="J33" s="1">
         <v>16.129032258064516</v>
@@ -2601,8 +2632,9 @@
       <c r="M33" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>152</v>
       </c>
@@ -2628,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="10">
-        <v>1900</v>
+        <v>3900</v>
       </c>
       <c r="J34" s="1">
         <v>2.7649769585253456</v>
@@ -2644,8 +2676,9 @@
       <c r="M34" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
@@ -2668,17 +2701,17 @@
         <v>34.699999999999996</v>
       </c>
       <c r="H35" s="1">
-        <v>30.4</v>
+        <v>27.500000000000004</v>
       </c>
       <c r="I35" s="10">
-        <v>-68.97001303780965</v>
+        <v>-71.148825065274153</v>
       </c>
       <c r="J35" s="1">
         <v>21.198156682027651</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="0"/>
-        <v>30.4</v>
+        <v>27.500000000000004</v>
       </c>
       <c r="L35" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2687,8 +2720,9 @@
       <c r="M35" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
@@ -2711,10 +2745,10 @@
         <v>20.200000000000003</v>
       </c>
       <c r="H36" s="1">
-        <v>68.100000000000009</v>
+        <v>62.3</v>
       </c>
       <c r="I36" s="10">
-        <v>-75.972540045766593</v>
+        <v>-83.908045977011497</v>
       </c>
       <c r="J36" s="1">
         <v>47.926267281105986</v>
@@ -2730,8 +2764,9 @@
       <c r="M36" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>25</v>
       </c>
@@ -2757,7 +2792,7 @@
         <v>78.2</v>
       </c>
       <c r="I37" s="10">
-        <v>-56.420765027322403</v>
+        <v>-47.902571041948583</v>
       </c>
       <c r="J37" s="1">
         <v>59.907834101382484</v>
@@ -2773,8 +2808,9 @@
       <c r="M37" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>153</v>
       </c>
@@ -2800,7 +2836,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="I38" s="10">
-        <v>212.50000000000006</v>
+        <v>213.04347826086959</v>
       </c>
       <c r="J38" s="1">
         <v>14.285714285714285</v>
@@ -2816,8 +2852,9 @@
       <c r="M38" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>154</v>
       </c>
@@ -2840,10 +2877,10 @@
         <v>10.100000000000001</v>
       </c>
       <c r="H39" s="1">
-        <v>39.1</v>
+        <v>36.199999999999996</v>
       </c>
       <c r="I39" s="10">
-        <v>-77.083333333333329</v>
+        <v>-79.130434782608688</v>
       </c>
       <c r="J39" s="1">
         <v>19.124423963133641</v>
@@ -2859,8 +2896,9 @@
       <c r="M39" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>155</v>
       </c>
@@ -2886,7 +2924,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="I40" s="10">
-        <v>-34.426229508196712</v>
+        <v>-38.983050847457633</v>
       </c>
       <c r="J40" s="1">
         <v>17.972350230414747</v>
@@ -2902,8 +2940,9 @@
       <c r="M40" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>156</v>
       </c>
@@ -2929,7 +2968,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="I41" s="10">
-        <v>-55.555555555555557</v>
+        <v>-42.616033755274266</v>
       </c>
       <c r="J41" s="1">
         <v>17.741935483870968</v>
@@ -2945,8 +2984,9 @@
       <c r="M41" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>89</v>
       </c>
@@ -2969,10 +3009,10 @@
         <v>92.7</v>
       </c>
       <c r="H42" s="1">
-        <v>34.699999999999996</v>
+        <v>31.8</v>
       </c>
       <c r="I42" s="10">
-        <v>-67.238689547581899</v>
+        <v>-69.375</v>
       </c>
       <c r="J42" s="1">
         <v>40.092165898617509</v>
@@ -2988,8 +3028,9 @@
       <c r="M42" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>157</v>
       </c>
@@ -3012,10 +3053,10 @@
         <v>63.7</v>
       </c>
       <c r="H43" s="1">
-        <v>79.7</v>
+        <v>84</v>
       </c>
       <c r="I43" s="10">
-        <v>0.85470085470087387</v>
+        <v>3.2786885245901676</v>
       </c>
       <c r="J43" s="1">
         <v>76.958525345622121</v>
@@ -3031,8 +3072,9 @@
       <c r="M43" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>43</v>
       </c>
@@ -3058,7 +3100,7 @@
         <v>28.9</v>
       </c>
       <c r="I44" s="10">
-        <v>-23.684210526315795</v>
+        <v>-21.397379912663752</v>
       </c>
       <c r="J44" s="1">
         <v>64.976958525345623</v>
@@ -3074,8 +3116,9 @@
       <c r="M44" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>81</v>
       </c>
@@ -3101,7 +3144,7 @@
         <v>18.8</v>
       </c>
       <c r="I45" s="10">
-        <v>-9.0196078431372566</v>
+        <v>2.3255813953488191</v>
       </c>
       <c r="J45" s="1">
         <v>17.972350230414747</v>
@@ -3117,8 +3160,9 @@
       <c r="M45" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>186</v>
       </c>
@@ -3160,8 +3204,9 @@
       <c r="M46" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>187</v>
       </c>
@@ -3203,8 +3248,9 @@
       <c r="M47" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>188</v>
       </c>
@@ -3246,8 +3292,9 @@
       <c r="M48" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>189</v>
       </c>
@@ -3289,8 +3336,9 @@
       <c r="M49" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>190</v>
       </c>
@@ -3313,7 +3361,7 @@
         <v>50.7</v>
       </c>
       <c r="H50" s="1">
-        <v>91.3</v>
+        <v>89.8</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>228</v>
@@ -3332,8 +3380,9 @@
       <c r="M50" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>191</v>
       </c>
@@ -3356,7 +3405,7 @@
         <v>81.100000000000009</v>
       </c>
       <c r="H51" s="1">
-        <v>89.8</v>
+        <v>88.4</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>228</v>
@@ -3375,8 +3424,9 @@
       <c r="M51" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>192</v>
       </c>
@@ -3418,8 +3468,9 @@
       <c r="M52" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>193</v>
       </c>
@@ -3461,8 +3512,9 @@
       <c r="M53" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>194</v>
       </c>
@@ -3485,7 +3537,7 @@
         <v>40.5</v>
       </c>
       <c r="H54" s="1">
-        <v>84</v>
+        <v>82.6</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>228</v>
@@ -3504,8 +3556,9 @@
       <c r="M54" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>195</v>
       </c>
@@ -3528,7 +3581,7 @@
         <v>79.7</v>
       </c>
       <c r="H55" s="1">
-        <v>82.6</v>
+        <v>81.100000000000009</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>228</v>
@@ -3547,8 +3600,9 @@
       <c r="M55" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>196</v>
       </c>
@@ -3590,8 +3644,9 @@
       <c r="M56" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>226</v>
       </c>
@@ -3614,7 +3669,7 @@
         <v>78.2</v>
       </c>
       <c r="H57" s="1">
-        <v>66.600000000000009</v>
+        <v>69.5</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>228</v>
@@ -3624,7 +3679,7 @@
       </c>
       <c r="K57" s="3">
         <f t="shared" si="0"/>
-        <v>66.600000000000009</v>
+        <v>69.5</v>
       </c>
       <c r="L57" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3633,8 +3688,9 @@
       <c r="M57" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>197</v>
       </c>
@@ -3676,8 +3732,9 @@
       <c r="M58" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>198</v>
       </c>
@@ -3700,7 +3757,7 @@
         <v>95.6</v>
       </c>
       <c r="H59" s="1">
-        <v>20.200000000000003</v>
+        <v>17.299999999999997</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>228</v>
@@ -3710,7 +3767,7 @@
       </c>
       <c r="K59" s="3">
         <f t="shared" si="0"/>
-        <v>20.200000000000003</v>
+        <v>17.299999999999997</v>
       </c>
       <c r="L59" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3719,8 +3776,9 @@
       <c r="M59" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>129</v>
       </c>
@@ -3746,7 +3804,7 @@
         <v>21.7</v>
       </c>
       <c r="I60" s="10">
-        <v>41.176470588235283</v>
+        <v>46.511627906976742</v>
       </c>
       <c r="J60" s="1">
         <v>41.705069124423964</v>
@@ -3762,8 +3820,9 @@
       <c r="M60" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>73</v>
       </c>
@@ -3789,7 +3848,7 @@
         <v>23.1</v>
       </c>
       <c r="I61" s="10">
-        <v>-46.931407942238259</v>
+        <v>-44.60431654676259</v>
       </c>
       <c r="J61" s="1">
         <v>49.078341013824883</v>
@@ -3805,8 +3864,9 @@
       <c r="M61" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>9</v>
       </c>
@@ -3832,7 +3892,7 @@
         <v>92.7</v>
       </c>
       <c r="I62" s="10">
-        <v>-19.556451612903224</v>
+        <v>-19.393939393939384</v>
       </c>
       <c r="J62" s="1">
         <v>95.622119815668214</v>
@@ -3848,8 +3908,9 @@
       <c r="M62" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>110</v>
       </c>
@@ -3872,17 +3933,17 @@
         <v>69.5</v>
       </c>
       <c r="H63" s="1">
-        <v>52.1</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I63" s="10">
-        <v>7.8431372549019773</v>
+        <v>14.355231143552306</v>
       </c>
       <c r="J63" s="1">
         <v>13.59447004608295</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" si="0"/>
-        <v>52.1</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="L63" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3891,8 +3952,9 @@
       <c r="M63" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>158</v>
       </c>
@@ -3915,10 +3977,10 @@
         <v>46.300000000000004</v>
       </c>
       <c r="H64" s="1">
-        <v>57.9</v>
+        <v>53.6</v>
       </c>
       <c r="I64" s="10">
-        <v>2.7237354085603238</v>
+        <v>-5.5118110236220481</v>
       </c>
       <c r="J64" s="1">
         <v>12.903225806451612</v>
@@ -3934,8 +3996,9 @@
       <c r="M64" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>159</v>
       </c>
@@ -3958,17 +4021,17 @@
         <v>82.6</v>
       </c>
       <c r="H65" s="1">
-        <v>37.6</v>
+        <v>39.1</v>
       </c>
       <c r="I65" s="10">
-        <v>-13.411078717201164</v>
+        <v>-11.046511627906973</v>
       </c>
       <c r="J65" s="1">
         <v>12.672811059907833</v>
       </c>
       <c r="K65" s="3">
         <f t="shared" si="0"/>
-        <v>37.6</v>
+        <v>39.1</v>
       </c>
       <c r="L65" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3977,8 +4040,9 @@
       <c r="M65" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>160</v>
       </c>
@@ -4001,7 +4065,7 @@
         <v>21.7</v>
       </c>
       <c r="H66" s="1">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="I66" s="10">
         <v>0</v>
@@ -4011,7 +4075,7 @@
       </c>
       <c r="K66" s="3">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="L66" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4020,8 +4084,9 @@
       <c r="M66" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>161</v>
       </c>
@@ -4044,10 +4109,10 @@
         <v>14.399999999999999</v>
       </c>
       <c r="H67" s="1">
-        <v>46.300000000000004</v>
+        <v>47.8</v>
       </c>
       <c r="I67" s="10">
-        <v>41.176470588235304</v>
+        <v>50</v>
       </c>
       <c r="J67" s="1">
         <v>19.585253456221199</v>
@@ -4063,8 +4128,9 @@
       <c r="M67" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>176</v>
       </c>
@@ -4087,7 +4153,7 @@
         <v>31.8</v>
       </c>
       <c r="H68" s="1">
-        <v>33.300000000000004</v>
+        <v>34.699999999999996</v>
       </c>
       <c r="I68" s="10">
         <v>-61.940298507462686</v>
@@ -4106,8 +4172,9 @@
       <c r="M68" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>162</v>
       </c>
@@ -4130,10 +4197,10 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="H69" s="1">
-        <v>53.6</v>
+        <v>56.499999999999993</v>
       </c>
       <c r="I69" s="10">
-        <v>3.9370078740157632</v>
+        <v>6.0209424083769614</v>
       </c>
       <c r="J69" s="1">
         <v>21.428571428571431</v>
@@ -4149,8 +4216,9 @@
       <c r="M69" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>163</v>
       </c>
@@ -4173,10 +4241,10 @@
         <v>5.7</v>
       </c>
       <c r="H70" s="1">
-        <v>73.900000000000006</v>
+        <v>71</v>
       </c>
       <c r="I70" s="10">
-        <v>-71.428571428571416</v>
+        <v>-70.967741935483872</v>
       </c>
       <c r="J70" s="1">
         <v>30.875576036866359</v>
@@ -4192,8 +4260,9 @@
       <c r="M70" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>126</v>
       </c>
@@ -4219,7 +4288,7 @@
         <v>10.100000000000001</v>
       </c>
       <c r="I71" s="10">
-        <v>-110.34482758620689</v>
+        <v>-100</v>
       </c>
       <c r="J71" s="1">
         <v>10.599078341013826</v>
@@ -4235,8 +4304,9 @@
       <c r="M71" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>46</v>
       </c>
@@ -4278,8 +4348,9 @@
       <c r="M72" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>37</v>
       </c>
@@ -4321,8 +4392,9 @@
       <c r="M73" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>27</v>
       </c>
@@ -4364,8 +4436,9 @@
       <c r="M74" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>51</v>
       </c>
@@ -4407,8 +4480,9 @@
       <c r="M75" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>125</v>
       </c>
@@ -4450,8 +4524,9 @@
       <c r="M76" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>112</v>
       </c>
@@ -4493,8 +4568,9 @@
       <c r="M77" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>65</v>
       </c>
@@ -4536,8 +4612,9 @@
       <c r="M78" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>50</v>
       </c>
@@ -4579,8 +4656,9 @@
       <c r="M79" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>93</v>
       </c>
@@ -4622,8 +4700,9 @@
       <c r="M80" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>177</v>
       </c>
@@ -4665,8 +4744,9 @@
       <c r="M81" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>164</v>
       </c>
@@ -4708,8 +4788,9 @@
       <c r="M82" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>135</v>
       </c>
@@ -4751,8 +4832,9 @@
       <c r="M83" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>20</v>
       </c>
@@ -4794,8 +4876,9 @@
       <c r="M84" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>96</v>
       </c>
@@ -4837,8 +4920,9 @@
       <c r="M85" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -4880,8 +4964,9 @@
       <c r="M86" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>56</v>
       </c>
@@ -4923,8 +5008,9 @@
       <c r="M87" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>35</v>
       </c>
@@ -4966,8 +5052,9 @@
       <c r="M88" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>47</v>
       </c>
@@ -5009,8 +5096,9 @@
       <c r="M89" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>100</v>
       </c>
@@ -5052,8 +5140,9 @@
       <c r="M90" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>122</v>
       </c>
@@ -5095,8 +5184,9 @@
       <c r="M91" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>17</v>
       </c>
@@ -5138,8 +5228,9 @@
       <c r="M92" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>61</v>
       </c>
@@ -5181,8 +5272,9 @@
       <c r="M93" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>182</v>
       </c>
@@ -5224,8 +5316,9 @@
       <c r="M94" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>71</v>
       </c>
@@ -5267,8 +5360,9 @@
       <c r="M95" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -5310,8 +5404,9 @@
       <c r="M96" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>36</v>
       </c>
@@ -5353,8 +5448,9 @@
       <c r="M97" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>74</v>
       </c>
@@ -5396,8 +5492,9 @@
       <c r="M98" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>87</v>
       </c>
@@ -5439,8 +5536,9 @@
       <c r="M99" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>121</v>
       </c>
@@ -5482,8 +5580,9 @@
       <c r="M100" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>97</v>
       </c>
@@ -5525,8 +5624,9 @@
       <c r="M101" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>115</v>
       </c>
@@ -5568,8 +5668,9 @@
       <c r="M102" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>130</v>
       </c>
@@ -5611,8 +5712,9 @@
       <c r="M103" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>86</v>
       </c>
@@ -5654,8 +5756,9 @@
       <c r="M104" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>39</v>
       </c>
@@ -5697,8 +5800,9 @@
       <c r="M105" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>57</v>
       </c>
@@ -5740,8 +5844,9 @@
       <c r="M106" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>102</v>
       </c>
@@ -5783,8 +5888,9 @@
       <c r="M107" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>49</v>
       </c>
@@ -5826,8 +5932,9 @@
       <c r="M108" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>98</v>
       </c>
@@ -5869,8 +5976,9 @@
       <c r="M109" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>165</v>
       </c>
@@ -5912,8 +6020,9 @@
       <c r="M110" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>90</v>
       </c>
@@ -5955,8 +6064,9 @@
       <c r="M111" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>124</v>
       </c>
@@ -5998,8 +6108,9 @@
       <c r="M112" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>44</v>
       </c>
@@ -6041,8 +6152,9 @@
       <c r="M113" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>131</v>
       </c>
@@ -6084,8 +6196,9 @@
       <c r="M114" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>48</v>
       </c>
@@ -6127,8 +6240,9 @@
       <c r="M115" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>166</v>
       </c>
@@ -6170,8 +6284,9 @@
       <c r="M116" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>116</v>
       </c>
@@ -6213,8 +6328,9 @@
       <c r="M117" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>76</v>
       </c>
@@ -6256,8 +6372,9 @@
       <c r="M118" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>134</v>
       </c>
@@ -6299,8 +6416,9 @@
       <c r="M119" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>85</v>
       </c>
@@ -6342,8 +6460,9 @@
       <c r="M120" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>6</v>
       </c>
@@ -6385,8 +6504,9 @@
       <c r="M121" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>69</v>
       </c>
@@ -6428,8 +6548,9 @@
       <c r="M122" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>66</v>
       </c>
@@ -6471,8 +6592,9 @@
       <c r="M123" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>199</v>
       </c>
@@ -6514,8 +6636,9 @@
       <c r="M124" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>200</v>
       </c>
@@ -6557,8 +6680,9 @@
       <c r="M125" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>201</v>
       </c>
@@ -6600,8 +6724,9 @@
       <c r="M126" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>202</v>
       </c>
@@ -6643,8 +6768,9 @@
       <c r="M127" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>203</v>
       </c>
@@ -6686,8 +6812,9 @@
       <c r="M128" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>204</v>
       </c>
@@ -6729,8 +6856,9 @@
       <c r="M129" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>205</v>
       </c>
@@ -6772,8 +6900,9 @@
       <c r="M130" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>206</v>
       </c>
@@ -6815,8 +6944,9 @@
       <c r="M131" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>207</v>
       </c>
@@ -6858,8 +6988,9 @@
       <c r="M132" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>208</v>
       </c>
@@ -6901,8 +7032,9 @@
       <c r="M133" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>209</v>
       </c>
@@ -6944,8 +7076,9 @@
       <c r="M134" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>210</v>
       </c>
@@ -6987,8 +7120,9 @@
       <c r="M135" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>211</v>
       </c>
@@ -7030,8 +7164,9 @@
       <c r="M136" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>77</v>
       </c>
@@ -7073,8 +7208,9 @@
       <c r="M137" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>109</v>
       </c>
@@ -7116,8 +7252,9 @@
       <c r="M138" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>28</v>
       </c>
@@ -7159,8 +7296,9 @@
       <c r="M139" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>53</v>
       </c>
@@ -7202,8 +7340,9 @@
       <c r="M140" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>31</v>
       </c>
@@ -7245,8 +7384,9 @@
       <c r="M141" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>180</v>
       </c>
@@ -7288,8 +7428,9 @@
       <c r="M142" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>120</v>
       </c>
@@ -7331,8 +7472,9 @@
       <c r="M143" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>104</v>
       </c>
@@ -7374,8 +7516,9 @@
       <c r="M144" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>92</v>
       </c>
@@ -7417,8 +7560,9 @@
       <c r="M145" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>167</v>
       </c>
@@ -7460,8 +7604,9 @@
       <c r="M146" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>168</v>
       </c>
@@ -7503,8 +7648,9 @@
       <c r="M147" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>184</v>
       </c>
@@ -7546,8 +7692,9 @@
       <c r="M148" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>103</v>
       </c>
@@ -7589,8 +7736,9 @@
       <c r="M149" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>60</v>
       </c>
@@ -7632,8 +7780,9 @@
       <c r="M150" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>63</v>
       </c>
@@ -7675,8 +7824,9 @@
       <c r="M151" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>26</v>
       </c>
@@ -7718,8 +7868,9 @@
       <c r="M152" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>24</v>
       </c>
@@ -7761,8 +7912,9 @@
       <c r="M153" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>33</v>
       </c>
@@ -7804,8 +7956,9 @@
       <c r="M154" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>22</v>
       </c>
@@ -7847,8 +8000,9 @@
       <c r="M155" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>70</v>
       </c>
@@ -7890,8 +8044,9 @@
       <c r="M156" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>42</v>
       </c>
@@ -7933,8 +8088,9 @@
       <c r="M157" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>55</v>
       </c>
@@ -7976,8 +8132,9 @@
       <c r="M158" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>118</v>
       </c>
@@ -8019,8 +8176,9 @@
       <c r="M159" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>119</v>
       </c>
@@ -8062,8 +8220,9 @@
       <c r="M160" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>136</v>
       </c>
@@ -8105,8 +8264,9 @@
       <c r="M161" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>15</v>
       </c>
@@ -8148,8 +8308,9 @@
       <c r="M162" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>174</v>
       </c>
@@ -8191,8 +8352,9 @@
       <c r="M163" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>34</v>
       </c>
@@ -8234,8 +8396,9 @@
       <c r="M164" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>83</v>
       </c>
@@ -8277,8 +8440,9 @@
       <c r="M165" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>30</v>
       </c>
@@ -8320,8 +8484,9 @@
       <c r="M166" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>178</v>
       </c>
@@ -8363,8 +8528,9 @@
       <c r="M167" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>101</v>
       </c>
@@ -8406,8 +8572,9 @@
       <c r="M168" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>123</v>
       </c>
@@ -8449,8 +8616,9 @@
       <c r="M169" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>80</v>
       </c>
@@ -8492,8 +8660,9 @@
       <c r="M170" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>40</v>
       </c>
@@ -8535,8 +8704,9 @@
       <c r="M171" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>117</v>
       </c>
@@ -8578,8 +8748,9 @@
       <c r="M172" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>82</v>
       </c>
@@ -8621,8 +8792,9 @@
       <c r="M173" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>21</v>
       </c>
@@ -8664,8 +8836,9 @@
       <c r="M174" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>95</v>
       </c>
@@ -8707,8 +8880,9 @@
       <c r="M175" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>111</v>
       </c>
@@ -8750,8 +8924,9 @@
       <c r="M176" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>64</v>
       </c>
@@ -8793,8 +8968,9 @@
       <c r="M177" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>18</v>
       </c>
@@ -8836,8 +9012,9 @@
       <c r="M178" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>169</v>
       </c>
@@ -8879,8 +9056,9 @@
       <c r="M179" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>8</v>
       </c>
@@ -8922,8 +9100,9 @@
       <c r="M180" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>16</v>
       </c>
@@ -8965,8 +9144,9 @@
       <c r="M181" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>5</v>
       </c>
@@ -9008,8 +9188,9 @@
       <c r="M182" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>32</v>
       </c>
@@ -9051,8 +9232,9 @@
       <c r="M183" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>11</v>
       </c>
@@ -9094,8 +9276,9 @@
       <c r="M184" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>59</v>
       </c>
@@ -9137,8 +9320,9 @@
       <c r="M185" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>14</v>
       </c>
@@ -9180,8 +9364,9 @@
       <c r="M186" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>54</v>
       </c>
@@ -9223,8 +9408,9 @@
       <c r="M187" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>79</v>
       </c>
@@ -9266,8 +9452,9 @@
       <c r="M188" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>106</v>
       </c>
@@ -9309,8 +9496,9 @@
       <c r="M189" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>113</v>
       </c>
@@ -9352,8 +9540,9 @@
       <c r="M190" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>12</v>
       </c>
@@ -9395,8 +9584,9 @@
       <c r="M191" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>58</v>
       </c>
@@ -9438,8 +9628,9 @@
       <c r="M192" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>75</v>
       </c>
@@ -9481,8 +9672,9 @@
       <c r="M193" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>91</v>
       </c>
@@ -9524,8 +9716,9 @@
       <c r="M194" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>181</v>
       </c>
@@ -9567,8 +9760,9 @@
       <c r="M195" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>212</v>
       </c>
@@ -9610,8 +9804,9 @@
       <c r="M196" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>213</v>
       </c>
@@ -9653,8 +9848,9 @@
       <c r="M197" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>214</v>
       </c>
@@ -9696,8 +9892,9 @@
       <c r="M198" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>215</v>
       </c>
@@ -9739,8 +9936,9 @@
       <c r="M199" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>216</v>
       </c>
@@ -9782,8 +9980,9 @@
       <c r="M200" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>217</v>
       </c>
@@ -9825,8 +10024,9 @@
       <c r="M201" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>218</v>
       </c>
@@ -9868,8 +10068,9 @@
       <c r="M202" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>219</v>
       </c>
@@ -9911,8 +10112,9 @@
       <c r="M203" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" s="1"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>220</v>
       </c>
@@ -9954,8 +10156,9 @@
       <c r="M204" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>221</v>
       </c>
@@ -9997,8 +10200,9 @@
       <c r="M205" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" s="1"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>222</v>
       </c>
@@ -10040,8 +10244,9 @@
       <c r="M206" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" s="1"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>223</v>
       </c>
@@ -10083,8 +10288,9 @@
       <c r="M207" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" s="1"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>224</v>
       </c>
@@ -10126,8 +10332,9 @@
       <c r="M208" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N208" s="1"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>225</v>
       </c>
@@ -10169,8 +10376,9 @@
       <c r="M209" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" s="1"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>227</v>
       </c>
@@ -10212,8 +10420,9 @@
       <c r="M210" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N210" s="1"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>128</v>
       </c>
@@ -10255,8 +10464,9 @@
       <c r="M211" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N211" s="1"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>23</v>
       </c>
@@ -10298,8 +10508,9 @@
       <c r="M212" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>88</v>
       </c>
@@ -10341,8 +10552,9 @@
       <c r="M213" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>78</v>
       </c>
@@ -10384,8 +10596,9 @@
       <c r="M214" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>41</v>
       </c>
@@ -10427,6 +10640,7 @@
       <c r="M215" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="N215" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M215" xr:uid="{62635B1A-709D-4771-A284-C9977E8DCD30}"/>
@@ -10434,5 +10648,6 @@
     <sortCondition ref="L1:L173"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>